--- a/data/data_kontrak_new.xlsx
+++ b/data/data_kontrak_new.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD5610C-B1D0-CD40-BD26-57C6F952BD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71313ED2-635D-1048-9272-0A2EDCCA7A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{8AB47025-A3BF-0940-B260-25D870F910D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF85CBC-8EAD-2144-9BDB-7951ABAA9BFA}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1149,7 +1149,7 @@
         <v>10935</v>
       </c>
       <c r="N10">
-        <v>2187</v>
+        <v>10935</v>
       </c>
       <c r="P10">
         <v>8748</v>

--- a/data/data_kontrak_new.xlsx
+++ b/data/data_kontrak_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD5610C-B1D0-CD40-BD26-57C6F952BD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38350944-BE98-4474-A8D2-CCE27E33B93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{8AB47025-A3BF-0940-B260-25D870F910D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AB47025-A3BF-0940-B260-25D870F910D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
   <si>
     <t>No.</t>
   </si>
@@ -291,13 +289,73 @@
   </si>
   <si>
     <t>INCA &amp; KSO PDS (1A)</t>
+  </si>
+  <si>
+    <t>030/INA02/IV/2025/L-C Perjanjian Kerja (Kontrak) Pekerjaan Proyek Pembangunan Tambak Udang Sumbawa (Fasilitas Pendukung Tahap 1B)</t>
+  </si>
+  <si>
+    <t>031/INA02/V/2025/L-C Perjanjian Kerja (Kontrak) Pekerjaan Renovasi Kantor di Teuku Umar</t>
+  </si>
+  <si>
+    <t>032/INA02/V/2025/L-C Perjanjian Kerja (Kontrak) Pekerjaan Pengadaan Barang dan Jasa Serta Layanan Pendukung Operasional Kantor</t>
+  </si>
+  <si>
+    <t>033/INA02/V/2025/L-C Addendum I Perjanjian Kerja (Kontrak) Instalasi dan Pengadaan Generator Set</t>
+  </si>
+  <si>
+    <t>034/INA02/V/2025/L-C Addendum I Perjanjian Kerja (Kontrak) Instalasi dan Pengadaan Pompa Air</t>
+  </si>
+  <si>
+    <t>036/INA02/V/2025/L-C Perjanjian Kerja (Kontrak) Jasa Pengurusan UKL/UPL Laut dan Pemanfaatan Air Laut Selain Energi</t>
+  </si>
+  <si>
+    <t>037/INA02/VI/2025/L-C Perjanjian Kerja (Kontrak) Pengadaan dan Instalasi PJU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">039/INA02/VI/2025/L-C Perjanjian Kerja (Kontrak) Pembangunan Pos Lanal </t>
+  </si>
+  <si>
+    <t>038/INA02/VI/2025/L-C Addendum II Perjanjian Kerja (Kontrak) Pembangunan Tambak Udang Sumbawa Fasilitas Penunjang Swadaya Warga</t>
+  </si>
+  <si>
+    <t>035/INA02/V/2025/L-C Addendum I Perjanjian Sewa Menyewa Rumah Lunyuk</t>
+  </si>
+  <si>
+    <t>040/INA02/VI/2025/L-C Perjanjian Kerja (Kontrak) Pengadaan dan Instalisasi Cubicle dan Penyambungan Daya 1.110 kVA</t>
+  </si>
+  <si>
+    <t>041/INA02/VII/2025/L-C Perjanjian Kerja (Kontrak) Pekerjaan Saluran Drainase Jalan Akses Tambak Udang Sumbawa</t>
+  </si>
+  <si>
+    <t>INCA &amp; REALIS</t>
+  </si>
+  <si>
+    <t>INCA &amp; SAPODIA</t>
+  </si>
+  <si>
+    <t>ACCTIVE ADDENDUM</t>
+  </si>
+  <si>
+    <t>INCA &amp; ERSTER (RUMAH LUNYUK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCTIVE </t>
+  </si>
+  <si>
+    <t>INCA &amp; EIJ</t>
+  </si>
+  <si>
+    <t>ACCTIVE</t>
+  </si>
+  <si>
+    <t>INCA &amp; EBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -311,6 +369,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -333,11 +398,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,20 +738,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF85CBC-8EAD-2144-9BDB-7951ABAA9BFA}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="4.08203125" customWidth="1"/>
     <col min="2" max="2" width="48.33203125" customWidth="1"/>
-    <col min="3" max="3" width="54" style="3" customWidth="1"/>
-    <col min="4" max="4" width="58.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,7 +808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>35</v>
       </c>
@@ -785,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>36</v>
       </c>
@@ -835,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -885,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -929,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>34</v>
       </c>
@@ -973,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1020,7 +1087,7 @@
         <v>0.30011587485515645</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>32</v>
       </c>
@@ -1067,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1114,7 +1181,7 @@
         <v>0.92689550293286982</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>28</v>
       </c>
@@ -1161,7 +1228,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1202,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1246,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1287,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>25</v>
       </c>
@@ -1334,7 +1401,7 @@
         <v>0.45073891625615764</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>26</v>
       </c>
@@ -1381,7 +1448,7 @@
         <v>0.65131578947368418</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1428,7 +1495,7 @@
         <v>0.5265682656826568</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1475,7 +1542,7 @@
         <v>0.59991066110780222</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1522,7 +1589,7 @@
         <v>0.25933060438237421</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>30</v>
       </c>
@@ -1569,7 +1636,7 @@
         <v>0.79104477611940294</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1610,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>33</v>
       </c>
@@ -1657,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>12</v>
       </c>
@@ -1698,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1709,7 +1776,7 @@
         <v>45545</v>
       </c>
       <c r="D23" s="3">
-        <v>45703</v>
+        <v>45698</v>
       </c>
       <c r="E23">
         <v>45759</v>
@@ -1742,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>18</v>
       </c>
@@ -1750,10 +1817,10 @@
         <v>61</v>
       </c>
       <c r="C24" s="3">
-        <v>45553</v>
+        <v>45545</v>
       </c>
       <c r="D24" s="3">
-        <v>45796</v>
+        <v>45787</v>
       </c>
       <c r="E24">
         <v>45759</v>
@@ -1795,7 +1862,7 @@
         <v>0.49980552314274601</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>17</v>
       </c>
@@ -1836,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>14</v>
       </c>
@@ -1883,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>15</v>
       </c>
@@ -1933,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>16</v>
       </c>
@@ -1980,7 +2047,7 @@
         <v>0.69989165763813654</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>31</v>
       </c>
@@ -2021,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>19</v>
       </c>
@@ -2065,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>20</v>
       </c>
@@ -2112,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>21</v>
       </c>
@@ -2156,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>29</v>
       </c>
@@ -2203,7 +2270,7 @@
         <v>3.5353535353535352E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>22</v>
       </c>
@@ -2244,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>23</v>
       </c>
@@ -2285,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>24</v>
       </c>
@@ -2329,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>27</v>
       </c>
@@ -2376,7 +2443,350 @@
         <v>0.74642592492183124</v>
       </c>
     </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="3">
+        <v>45762</v>
+      </c>
+      <c r="D38" s="3">
+        <v>45945</v>
+      </c>
+      <c r="F38">
+        <v>180</v>
+      </c>
+      <c r="G38">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="3">
+        <v>45768</v>
+      </c>
+      <c r="D39" s="3">
+        <v>45890</v>
+      </c>
+      <c r="F39">
+        <v>120</v>
+      </c>
+      <c r="G39">
+        <v>72</v>
+      </c>
+      <c r="I39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" t="s">
+        <v>97</v>
+      </c>
+      <c r="M39">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="3">
+        <v>45778</v>
+      </c>
+      <c r="D40" s="3">
+        <v>46143</v>
+      </c>
+      <c r="F40">
+        <v>365</v>
+      </c>
+      <c r="G40">
+        <v>62</v>
+      </c>
+      <c r="I40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M40">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="3">
+        <v>45454</v>
+      </c>
+      <c r="D41" s="3">
+        <v>46245</v>
+      </c>
+      <c r="F41">
+        <v>791</v>
+      </c>
+      <c r="G41">
+        <v>386</v>
+      </c>
+      <c r="I41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s">
+        <v>48</v>
+      </c>
+      <c r="M41">
+        <v>7685</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="3">
+        <v>45461</v>
+      </c>
+      <c r="D42" s="3">
+        <v>46191</v>
+      </c>
+      <c r="F42">
+        <v>730</v>
+      </c>
+      <c r="G42">
+        <v>379</v>
+      </c>
+      <c r="I42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="3">
+        <v>45574</v>
+      </c>
+      <c r="D43" s="3">
+        <v>45848</v>
+      </c>
+      <c r="F43">
+        <v>275</v>
+      </c>
+      <c r="G43">
+        <v>266</v>
+      </c>
+      <c r="I43" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" t="s">
+        <v>100</v>
+      </c>
+      <c r="M43">
+        <v>20</v>
+      </c>
+      <c r="N43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="3">
+        <v>45805</v>
+      </c>
+      <c r="D44" s="3">
+        <v>46109</v>
+      </c>
+      <c r="F44">
+        <v>304</v>
+      </c>
+      <c r="G44">
+        <v>35</v>
+      </c>
+      <c r="I44" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" t="s">
+        <v>102</v>
+      </c>
+      <c r="M44">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>37</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="3">
+        <v>45818</v>
+      </c>
+      <c r="D45" s="3">
+        <v>45667</v>
+      </c>
+      <c r="F45">
+        <v>214</v>
+      </c>
+      <c r="G45">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s">
+        <v>103</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+      <c r="M45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="3">
+        <v>45545</v>
+      </c>
+      <c r="D46" s="3">
+        <v>45971</v>
+      </c>
+      <c r="F46">
+        <v>426</v>
+      </c>
+      <c r="G46">
+        <v>325</v>
+      </c>
+      <c r="I46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" t="s">
+        <v>104</v>
+      </c>
+      <c r="M46">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="3">
+        <v>45831</v>
+      </c>
+      <c r="D47" s="3">
+        <v>45953</v>
+      </c>
+      <c r="F47">
+        <v>122</v>
+      </c>
+      <c r="G47">
+        <v>9</v>
+      </c>
+      <c r="I47" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" t="s">
+        <v>104</v>
+      </c>
+      <c r="M47">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="3">
+        <v>45831</v>
+      </c>
+      <c r="D48" s="3">
+        <v>46500</v>
+      </c>
+      <c r="F48">
+        <v>669</v>
+      </c>
+      <c r="G48">
+        <v>9</v>
+      </c>
+      <c r="I48" t="s">
+        <v>103</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="3">
+        <v>45839</v>
+      </c>
+      <c r="D49" s="3">
+        <v>46113</v>
+      </c>
+      <c r="F49">
+        <v>274</v>
+      </c>
+      <c r="I49" t="s">
+        <v>103</v>
+      </c>
+      <c r="J49" t="s">
+        <v>70</v>
+      </c>
+      <c r="M49">
+        <v>630</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/data_kontrak_new.xlsx
+++ b/data/data_kontrak_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38350944-BE98-4474-A8D2-CCE27E33B93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B897C1F6-E83F-4045-B170-5FEAAD1E83B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AB47025-A3BF-0940-B260-25D870F910D3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
   <si>
     <t>No.</t>
   </si>
@@ -315,12 +315,6 @@
     <t xml:space="preserve">039/INA02/VI/2025/L-C Perjanjian Kerja (Kontrak) Pembangunan Pos Lanal </t>
   </si>
   <si>
-    <t>038/INA02/VI/2025/L-C Addendum II Perjanjian Kerja (Kontrak) Pembangunan Tambak Udang Sumbawa Fasilitas Penunjang Swadaya Warga</t>
-  </si>
-  <si>
-    <t>035/INA02/V/2025/L-C Addendum I Perjanjian Sewa Menyewa Rumah Lunyuk</t>
-  </si>
-  <si>
     <t>040/INA02/VI/2025/L-C Perjanjian Kerja (Kontrak) Pengadaan dan Instalisasi Cubicle dan Penyambungan Daya 1.110 kVA</t>
   </si>
   <si>
@@ -336,9 +330,6 @@
     <t>ACCTIVE ADDENDUM</t>
   </si>
   <si>
-    <t>INCA &amp; ERSTER (RUMAH LUNYUK)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ACCTIVE </t>
   </si>
   <si>
@@ -349,6 +340,33 @@
   </si>
   <si>
     <t>INCA &amp; EBS</t>
+  </si>
+  <si>
+    <t>042/INA02/VII/2025/L-C Addendum I Perjanjian Kerja (Kontrak) Pekerjaan Pengadaan Barang dan Jasa Serta Layanan Pendukung Operasional Kantor</t>
+  </si>
+  <si>
+    <t>043/INA02/VII/2025/L-C Perjanjian Kerja (Kontrak) Pekerjaan Layanan Pendukung Monitoring UKL/UPL dan PKKPRL</t>
+  </si>
+  <si>
+    <t>ACCIVE</t>
+  </si>
+  <si>
+    <t>038/INA02/VI/2025/L-C Addendum II Perjanjian Kerja (Kontrak) ABT dan Izin Operasional</t>
+  </si>
+  <si>
+    <t>035/INA02/V/2025/L-C Addendum II Perjanjian Pekerjaan Swadaya Warga</t>
+  </si>
+  <si>
+    <t>031/INA02/V/2025/L-C Perjanjian Kerja Sewa Menyewa Kantor Teuku Umar</t>
+  </si>
+  <si>
+    <t>30/4/2025</t>
+  </si>
+  <si>
+    <t>INCA &amp; GST</t>
+  </si>
+  <si>
+    <t>044/INA02/VII/2025/L-C Addendum Pengadaan dan Instalasi PJU</t>
   </si>
 </sst>
 </file>
@@ -398,12 +416,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF85CBC-8EAD-2144-9BDB-7951ABAA9BFA}">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -1914,7 +1935,7 @@
         <v>45574</v>
       </c>
       <c r="D26" s="3">
-        <v>45818</v>
+        <v>45848</v>
       </c>
       <c r="E26">
         <v>45759</v>
@@ -1929,16 +1950,16 @@
         <v>0.75819672131147542</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
         <v>66</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2474,28 +2495,28 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C39" s="3">
-        <v>45768</v>
-      </c>
-      <c r="D39" s="3">
-        <v>45890</v>
+        <v>45778</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="F39">
-        <v>120</v>
+        <v>730</v>
       </c>
       <c r="G39">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s">
         <v>31</v>
       </c>
       <c r="J39" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M39">
-        <v>145</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
@@ -2503,57 +2524,57 @@
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="3">
-        <v>45778</v>
+        <v>45768</v>
       </c>
       <c r="D40" s="3">
-        <v>46143</v>
+        <v>45890</v>
       </c>
       <c r="F40">
-        <v>365</v>
+        <v>120</v>
       </c>
       <c r="G40">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s">
         <v>31</v>
       </c>
       <c r="J40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M40">
-        <v>2179</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>33</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>88</v>
+      <c r="B41" t="s">
+        <v>87</v>
       </c>
       <c r="C41" s="3">
-        <v>45454</v>
+        <v>45778</v>
       </c>
       <c r="D41" s="3">
-        <v>46245</v>
+        <v>46143</v>
       </c>
       <c r="F41">
-        <v>791</v>
+        <v>365</v>
       </c>
       <c r="G41">
-        <v>386</v>
+        <v>62</v>
       </c>
       <c r="I41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="M41">
-        <v>7685</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.4">
@@ -2561,25 +2582,28 @@
         <v>34</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="3">
-        <v>45461</v>
+        <v>45454</v>
       </c>
       <c r="D42" s="3">
-        <v>46191</v>
+        <v>46245</v>
       </c>
       <c r="F42">
-        <v>730</v>
+        <v>791</v>
       </c>
       <c r="G42">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="I42" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="M42">
+        <v>7685</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.4">
@@ -2587,31 +2611,25 @@
         <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C43" s="3">
-        <v>45574</v>
+        <v>45461</v>
       </c>
       <c r="D43" s="3">
-        <v>45848</v>
+        <v>46191</v>
       </c>
       <c r="F43">
-        <v>275</v>
+        <v>730</v>
       </c>
       <c r="G43">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="I43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
-      </c>
-      <c r="M43">
-        <v>20</v>
-      </c>
-      <c r="N43">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.4">
@@ -2619,28 +2637,28 @@
         <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C44" s="3">
-        <v>45805</v>
+        <v>45545</v>
       </c>
       <c r="D44" s="3">
-        <v>46109</v>
+        <v>45940</v>
       </c>
       <c r="F44">
-        <v>304</v>
+        <v>425</v>
       </c>
       <c r="G44">
-        <v>35</v>
+        <v>311</v>
       </c>
       <c r="I44" t="s">
+        <v>97</v>
+      </c>
+      <c r="J44" t="s">
         <v>101</v>
       </c>
-      <c r="J44" t="s">
-        <v>102</v>
-      </c>
       <c r="M44">
-        <v>1448</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.4">
@@ -2648,28 +2666,28 @@
         <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="3">
-        <v>45818</v>
+        <v>45805</v>
       </c>
       <c r="D45" s="3">
-        <v>45667</v>
+        <v>46109</v>
       </c>
       <c r="F45">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="G45">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J45" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="M45">
-        <v>162</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.4">
@@ -2677,28 +2695,28 @@
         <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="3">
-        <v>45545</v>
+        <v>45818</v>
       </c>
       <c r="D46" s="3">
-        <v>45971</v>
+        <v>45667</v>
       </c>
       <c r="F46">
-        <v>426</v>
+        <v>214</v>
       </c>
       <c r="G46">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J46" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="M46">
-        <v>3120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.4">
@@ -2706,28 +2724,28 @@
         <v>39</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C47" s="3">
-        <v>45831</v>
+        <v>45545</v>
       </c>
       <c r="D47" s="3">
-        <v>45953</v>
+        <v>45971</v>
       </c>
       <c r="F47">
-        <v>122</v>
+        <v>426</v>
       </c>
       <c r="G47">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="I47" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J47" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="M47">
-        <v>230</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.4">
@@ -2735,28 +2753,28 @@
         <v>40</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C48" s="3">
         <v>45831</v>
       </c>
       <c r="D48" s="3">
-        <v>46500</v>
+        <v>45953</v>
       </c>
       <c r="F48">
-        <v>669</v>
+        <v>122</v>
       </c>
       <c r="G48">
         <v>9</v>
       </c>
       <c r="I48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J48" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="M48">
-        <v>1565</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
@@ -2764,25 +2782,144 @@
         <v>41</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="3">
+        <v>45831</v>
+      </c>
+      <c r="D49" s="3">
+        <v>46500</v>
+      </c>
+      <c r="F49">
+        <v>669</v>
+      </c>
+      <c r="G49">
+        <v>9</v>
+      </c>
+      <c r="I49" t="s">
+        <v>100</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+      <c r="M49">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="3">
+        <v>45839</v>
+      </c>
+      <c r="D50" s="3">
+        <v>46113</v>
+      </c>
+      <c r="F50">
+        <v>274</v>
+      </c>
+      <c r="G50">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>100</v>
+      </c>
+      <c r="J50" t="s">
+        <v>70</v>
+      </c>
+      <c r="M50">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="3">
+        <v>45778</v>
+      </c>
+      <c r="D51" s="3">
+        <v>46143</v>
+      </c>
+      <c r="F51">
+        <v>365</v>
+      </c>
+      <c r="G51">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s">
+        <v>97</v>
+      </c>
+      <c r="J51" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="3">
-        <v>45839</v>
-      </c>
-      <c r="D49" s="3">
-        <v>46113</v>
-      </c>
-      <c r="F49">
-        <v>274</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="M51">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>44</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J49" t="s">
-        <v>70</v>
-      </c>
-      <c r="M49">
-        <v>630</v>
+      <c r="C52" s="3">
+        <v>45852</v>
+      </c>
+      <c r="D52" s="3">
+        <v>46217</v>
+      </c>
+      <c r="F52">
+        <v>365</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="I52" t="s">
+        <v>104</v>
+      </c>
+      <c r="J52" t="s">
+        <v>99</v>
+      </c>
+      <c r="M52">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>45</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="3">
+        <v>45818</v>
+      </c>
+      <c r="D53" s="3">
+        <v>46063</v>
+      </c>
+      <c r="F53">
+        <v>245</v>
+      </c>
+      <c r="G53">
+        <v>39</v>
+      </c>
+      <c r="I53" t="s">
+        <v>97</v>
+      </c>
+      <c r="J53" t="s">
+        <v>76</v>
+      </c>
+      <c r="M53">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_kontrak_new.xlsx
+++ b/data/data_kontrak_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\incaa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D29A8E-71F6-4ECA-90F6-6459482A6BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29DCC92-67A0-2B47-B8AC-F7CC33E80FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AB47025-A3BF-0940-B260-25D870F910D3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27140" windowHeight="22300" xr2:uid="{8AB47025-A3BF-0940-B260-25D870F910D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,12 +88,6 @@
     <t>Nilai Kontrak 2023-2024</t>
   </si>
   <si>
-    <t>Realisasi On  2023-2024</t>
-  </si>
-  <si>
-    <t>Realisasi On  2025</t>
-  </si>
-  <si>
     <t xml:space="preserve">Non Realisasi </t>
   </si>
   <si>
@@ -410,6 +404,12 @@
   </si>
   <si>
     <t>INCA &amp; KSO PDS</t>
+  </si>
+  <si>
+    <t>Realisasi_On_2023-2024</t>
+  </si>
+  <si>
+    <t>Realisasi_On_2025</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Koma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -890,32 +890,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF85CBC-8EAD-2144-9BDB-7951ABAA9BFA}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="118" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" customWidth="1"/>
-    <col min="2" max="2" width="78.8984375" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" customWidth="1"/>
-    <col min="6" max="6" width="17.796875" customWidth="1"/>
-    <col min="7" max="7" width="27.09765625" customWidth="1"/>
-    <col min="8" max="8" width="21.09765625" customWidth="1"/>
-    <col min="10" max="10" width="19.59765625" customWidth="1"/>
-    <col min="11" max="11" width="26.3984375" customWidth="1"/>
-    <col min="12" max="12" width="23.09765625" customWidth="1"/>
-    <col min="13" max="13" width="15.59765625" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
-    <col min="15" max="15" width="14.19921875" style="28" customWidth="1"/>
-    <col min="17" max="17" width="14.8984375" customWidth="1"/>
-    <col min="18" max="18" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="78.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="24.5" style="28" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -956,27 +956,27 @@
         <v>12</v>
       </c>
       <c r="N1" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="Q1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5">
         <v>45103</v>
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M2" s="6">
         <f>66600000/1000000</f>
@@ -1027,12 +1027,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5">
         <v>45124</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M3" s="6">
         <f>658096800/1000000</f>
@@ -1082,12 +1082,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5">
         <v>45145</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M4" s="6">
         <f>3006046500/1000000</f>
@@ -1137,12 +1137,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5">
         <v>45145</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O5" s="26">
         <v>0</v>
@@ -1184,12 +1184,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5">
         <v>45148</v>
@@ -1210,10 +1210,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O6" s="26">
         <v>0</v>
@@ -1231,12 +1231,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5">
         <v>45160</v>
@@ -1255,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M7" s="6">
         <f>1139250000/1000000</f>
@@ -1284,12 +1284,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5">
         <v>45170</v>
@@ -1310,10 +1310,10 @@
         <v>0.80574555403556769</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M8" s="6">
         <f>408000000/1000000</f>
@@ -1338,12 +1338,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5">
         <v>45200</v>
@@ -1364,10 +1364,10 @@
         <v>0.76470588235294112</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M9" s="6">
         <f>24056722803/1000000</f>
@@ -1394,12 +1394,12 @@
         <v>0.88808006788587845</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5">
         <v>45200</v>
@@ -1420,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="6">
         <f>2296247653/1000000</f>
@@ -1450,12 +1450,12 @@
         <v>-1.237745823856222E-16</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5">
         <v>45250</v>
@@ -1476,10 +1476,10 @@
         <v>1.0473251028806585</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
@@ -1503,12 +1503,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5">
         <v>45286</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1556,12 +1556,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
         <v>45314</v>
@@ -1582,10 +1582,10 @@
         <v>0.97587719298245612</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M13" s="6">
         <f>456654000/1000000</f>
@@ -1612,12 +1612,12 @@
         <v>0.6954010695187165</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5">
         <v>45314</v>
@@ -1638,10 +1638,10 @@
         <v>0.69640062597809071</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N14" s="3">
         <v>223</v>
@@ -1660,12 +1660,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5">
         <v>45321</v>
@@ -1686,10 +1686,10 @@
         <v>0.84719535783365574</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M15" s="3">
         <v>456</v>
@@ -1711,12 +1711,12 @@
         <v>0.65131578947368418</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>9</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="30">
         <v>45323</v>
@@ -1737,10 +1737,10 @@
         <v>0.8</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M16" s="31">
         <f>2709510000/1000000</f>
@@ -1767,12 +1767,12 @@
         <v>0.17518709360733123</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5">
         <v>45454</v>
@@ -1793,10 +1793,10 @@
         <v>0.66739606126914663</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1820,12 +1820,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>8</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="30">
         <v>45455</v>
@@ -1846,10 +1846,10 @@
         <v>0.49836065573770494</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="29">
         <v>8306</v>
@@ -1870,12 +1870,12 @@
         <v>0.25933060438237421</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5">
         <v>45474</v>
@@ -1896,10 +1896,10 @@
         <v>0.39094650205761317</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M19" s="3">
         <v>67</v>
@@ -1921,12 +1921,12 @@
         <v>0.62835820895522387</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5">
         <v>45478</v>
@@ -1947,10 +1947,10 @@
         <v>0.70959595959595956</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O20" s="26"/>
       <c r="P20" s="7">
@@ -1966,12 +1966,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5">
         <v>45505</v>
@@ -1992,10 +1992,10 @@
         <v>0.34842249657064472</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M21" s="3">
         <v>360</v>
@@ -2017,12 +2017,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="5">
         <v>45516</v>
@@ -2043,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O22" s="26"/>
       <c r="P22" s="7">
@@ -2062,12 +2062,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="5">
         <v>45545</v>
@@ -2088,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="7">
@@ -2107,12 +2107,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="5">
         <v>45545</v>
@@ -2133,10 +2133,10 @@
         <v>0.84773662551440332</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M24" s="3">
         <v>2571</v>
@@ -2158,12 +2158,12 @@
         <v>0.49980552314274601</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C25" s="5">
         <v>45566</v>
@@ -2184,10 +2184,10 @@
         <v>0.67957746478873238</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="S25" s="6"/>
     </row>
-    <row r="26" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="5">
         <v>45574</v>
@@ -2232,10 +2232,10 @@
         <v>0.75819672131147542</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M26" s="3">
         <v>18</v>
@@ -2257,12 +2257,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="5">
         <v>45583</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M27" s="3">
         <v>65</v>
@@ -2312,12 +2312,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>16</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="5">
         <v>45589</v>
@@ -2338,10 +2338,10 @@
         <v>0.14617368873602751</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M28" s="3">
         <v>1846</v>
@@ -2365,12 +2365,12 @@
         <v>0.36814734561213436</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>31</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="5">
         <v>45624</v>
@@ -2391,10 +2391,10 @@
         <v>0.11968085106382979</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O29" s="26"/>
       <c r="P29" s="7">
@@ -2410,12 +2410,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" s="5">
         <v>45636</v>
@@ -2436,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O30" s="26"/>
       <c r="P30" s="7">
@@ -2455,12 +2455,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="5">
         <v>45638</v>
@@ -2481,10 +2481,10 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M31" s="3">
         <v>1139</v>
@@ -2506,12 +2506,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="5">
         <v>45646</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O32" s="26"/>
       <c r="P32" s="7">
@@ -2551,12 +2551,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="5">
         <v>45646</v>
@@ -2577,10 +2577,10 @@
         <v>0.93388429752066116</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M33" s="7">
         <f>198264725/1000000</f>
@@ -2607,12 +2607,12 @@
       </c>
       <c r="S33" s="6"/>
     </row>
-    <row r="34" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" s="5">
         <v>45663</v>
@@ -2633,10 +2633,10 @@
         <v>0.13150684931506848</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M34" s="6">
         <f>408000000/1000000</f>
@@ -2659,12 +2659,12 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="5">
         <v>45663</v>
@@ -2685,10 +2685,10 @@
         <v>0.11808118081180811</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M35" s="6">
         <f>2848590558/1000000</f>
@@ -2710,12 +2710,12 @@
         <v>0.83886768187483407</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="5">
         <v>45666</v>
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M36" s="3">
         <f>10000000/1000000</f>
@@ -2761,12 +2761,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="5">
         <v>45694</v>
@@ -2787,10 +2787,10 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M37" s="3">
         <v>165987</v>
@@ -2812,12 +2812,12 @@
         <v>0.74642592492183124</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C38" s="5">
         <v>45762</v>
@@ -2832,10 +2832,10 @@
         <v>78</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M38" s="6">
         <f>9757908840/1000000</f>
@@ -2857,12 +2857,12 @@
         <v>0.24430529933091688</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>31</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" s="5">
         <v>45768</v>
@@ -2877,10 +2877,10 @@
         <v>72</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M39" s="6">
         <f>145543755/1000000</f>
@@ -2902,12 +2902,12 @@
         <v>-3.1347617766217147E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="5">
         <v>45778</v>
@@ -2922,10 +2922,10 @@
         <v>62</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M40" s="6">
         <f>2417361075/1000000</f>
@@ -2942,12 +2942,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>33</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="5">
         <v>45454</v>
@@ -2962,10 +2962,10 @@
         <v>386</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M41" s="3">
         <v>7685</v>
@@ -2991,12 +2991,12 @@
         <v>7.2409759271307744E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
         <v>34</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="30">
         <v>45461</v>
@@ -3011,10 +3011,10 @@
         <v>379</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J42" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M42" s="31">
         <f>8306130000/1000000</f>
@@ -3041,12 +3041,12 @@
         <v>0.20855193718374257</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C43" s="5">
         <v>45574</v>
@@ -3061,10 +3061,10 @@
         <v>266</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M43" s="3">
         <v>20</v>
@@ -3086,12 +3086,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" s="5">
         <v>45805</v>
@@ -3106,10 +3106,10 @@
         <v>35</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M44" s="6">
         <f>1607280000/1000000</f>
@@ -3132,12 +3132,12 @@
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45" s="5">
         <v>45818</v>
@@ -3152,10 +3152,10 @@
         <v>22</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M45" s="6">
         <v>0</v>
@@ -3174,12 +3174,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="5">
         <v>45545</v>
@@ -3194,10 +3194,10 @@
         <v>325</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M46" s="6">
         <f>3120776655/1000000</f>
@@ -3224,12 +3224,12 @@
         <v>9.9999999839783471E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>39</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" s="5">
         <v>45831</v>
@@ -3244,10 +3244,10 @@
         <v>9</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M47" s="6">
         <f>255300000/1000000</f>
@@ -3270,12 +3270,12 @@
         <v>0.30003916960438709</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>40</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" s="5">
         <v>45831</v>
@@ -3290,10 +3290,10 @@
         <v>9</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M48" s="6">
         <f>1565647431/1000000</f>
@@ -3317,12 +3317,12 @@
       </c>
       <c r="S48" s="8"/>
     </row>
-    <row r="49" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>41</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" s="5">
         <v>45839</v>
@@ -3334,10 +3334,10 @@
         <v>274</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M49" s="6">
         <f>700121666/1000000</f>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="S49" s="8"/>
     </row>
-    <row r="50" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>42</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C50" s="11">
         <v>45778</v>
@@ -3381,10 +3381,10 @@
         <v>111</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M50" s="9">
         <v>2417</v>
@@ -3406,12 +3406,12 @@
       </c>
       <c r="S50" s="13"/>
     </row>
-    <row r="51" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>43</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" s="11">
         <v>45852</v>
@@ -3426,10 +3426,10 @@
         <v>38</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M51" s="9">
         <v>920</v>
@@ -3451,12 +3451,12 @@
       </c>
       <c r="S51" s="13"/>
     </row>
-    <row r="52" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>44</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" s="11">
         <v>45818</v>
@@ -3471,10 +3471,10 @@
         <v>71</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M52" s="9">
         <v>197</v>
@@ -3497,12 +3497,12 @@
       </c>
       <c r="S52" s="13"/>
     </row>
-    <row r="53" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>45</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C53" s="11">
         <v>45250</v>
@@ -3517,10 +3517,10 @@
         <v>639</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M53" s="9">
         <v>2805</v>
@@ -3546,12 +3546,12 @@
       </c>
       <c r="S53" s="13"/>
     </row>
-    <row r="54" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>46</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C54" s="11">
         <v>45845</v>
@@ -3566,10 +3566,10 @@
         <v>43</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M54" s="14">
         <f>312307300/1000000</f>
@@ -3592,12 +3592,12 @@
       </c>
       <c r="S54" s="13"/>
     </row>
-    <row r="55" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
         <v>47</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55" s="17">
         <v>45867</v>
@@ -3612,10 +3612,10 @@
         <v>38</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M55" s="18">
         <v>2425</v>
@@ -3627,12 +3627,12 @@
       <c r="R55" s="19"/>
       <c r="S55" s="19"/>
     </row>
-    <row r="56" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>48</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" s="17">
         <v>45820</v>
@@ -3647,10 +3647,10 @@
         <v>450</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M56" s="18">
         <v>9902</v>
@@ -3662,12 +3662,12 @@
         <v>724</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
         <v>49</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C57" s="17">
         <v>45910</v>
@@ -3682,22 +3682,22 @@
         <v>359</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M57" s="21">
         <v>3121</v>
       </c>
       <c r="O57" s="26"/>
     </row>
-    <row r="58" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
         <v>50</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C58" s="17">
         <v>45883</v>
@@ -3712,10 +3712,10 @@
         <v>22</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M58" s="21">
         <v>26151</v>
@@ -3724,12 +3724,12 @@
         <v>10.268000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
         <v>51</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C59" s="17">
         <v>45895</v>
@@ -3744,22 +3744,22 @@
         <v>8</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M59" s="21">
         <v>1547</v>
       </c>
       <c r="O59" s="26"/>
     </row>
-    <row r="60" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
         <v>52</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C60" s="17">
         <v>45901</v>
@@ -3774,10 +3774,10 @@
         <v>4</v>
       </c>
       <c r="I60" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M60" s="21">
         <v>292</v>
@@ -3786,12 +3786,12 @@
         <v>194.5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <v>53</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C61" s="17">
         <v>45901</v>
@@ -3806,10 +3806,10 @@
         <v>4</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M61" s="21">
         <v>2527</v>
@@ -3818,12 +3818,12 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
         <v>54</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C62" s="17">
         <v>45478</v>
@@ -3838,22 +3838,22 @@
         <v>427</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M62" s="21">
         <v>165987</v>
       </c>
       <c r="O62" s="26"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>56</v>
       </c>

--- a/data/data_kontrak_new.xlsx
+++ b/data/data_kontrak_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55862D2-D326-A349-9C3E-C3E1C12F2AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42AB9FF-DB7F-BA44-BBEB-A2DD1D862100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15560" yWindow="2380" windowWidth="19980" windowHeight="18340" xr2:uid="{8AB47025-A3BF-0940-B260-25D870F910D3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30200" windowHeight="18880" xr2:uid="{8AB47025-A3BF-0940-B260-25D870F910D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,15 +39,17 @@
     <author>Finance-INA</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{30895D94-3AB1-440E-8A63-F67131120996}">
-      <text/>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{30895D94-3AB1-440E-8A63-F67131120996}">
+      <text>
+        <t/>
+      </text>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="121">
   <si>
     <t>No.</t>
   </si>
@@ -61,6 +63,9 @@
     <t>End Date</t>
   </si>
   <si>
+    <t>Cut Off (SO)</t>
+  </si>
+  <si>
     <t>PLANED DAYS</t>
   </si>
   <si>
@@ -403,10 +408,10 @@
     <t>INCA &amp; KSO PDS</t>
   </si>
   <si>
-    <t>Realisasi_On_ 2023-2024</t>
-  </si>
-  <si>
-    <t>Realisasi_On _2025</t>
+    <t>Realisasi_On_2023-2024</t>
+  </si>
+  <si>
+    <t>Realisasi_On_2025</t>
   </si>
 </sst>
 </file>
@@ -418,7 +423,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -452,6 +457,12 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -885,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF85CBC-8EAD-2144-9BDB-7951ABAA9BFA}">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,21 +908,22 @@
     <col min="2" max="2" width="78.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" customWidth="1"/>
-    <col min="11" max="11" width="23.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="29.83203125" customWidth="1"/>
-    <col min="14" max="14" width="34.6640625" style="28" customWidth="1"/>
-    <col min="16" max="16" width="14.83203125" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.1640625" customWidth="1"/>
+    <col min="13" max="13" width="28.33203125" customWidth="1"/>
+    <col min="14" max="14" width="37.83203125" customWidth="1"/>
+    <col min="15" max="15" width="24.5" style="28" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -949,13 +961,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="22" t="s">
-        <v>12</v>
+      <c r="O1" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="P1" s="22" t="s">
         <v>13</v>
@@ -963,13 +975,16 @@
       <c r="Q1" s="22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R1" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5">
         <v>45103</v>
@@ -978,51 +993,54 @@
         <v>45348</v>
       </c>
       <c r="E2" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F2" s="3">
         <v>245</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>656</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
+      <c r="H2" s="3">
+        <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6">
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="6">
         <f>66600000/1000000</f>
         <v>66.599999999999994</v>
       </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
         <f>13875000/1000000</f>
         <v>13.875</v>
       </c>
-      <c r="N2" s="25">
+      <c r="O2" s="25">
         <f>19425000/1000000</f>
         <v>19.425000000000001</v>
       </c>
-      <c r="O2" s="7">
-        <f>L2-M2-N2</f>
+      <c r="P2" s="7">
+        <f>M2-N2-O2</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="P2" s="8">
-        <f>(M2+N2)/L2</f>
+      <c r="Q2" s="8">
+        <f>(N2+O2)/M2</f>
         <v>0.5</v>
       </c>
-      <c r="Q2" s="8">
-        <f>O2/L2</f>
+      <c r="R2" s="8">
+        <f>P2/M2</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5">
         <v>45124</v>
@@ -1031,50 +1049,53 @@
         <v>45135</v>
       </c>
       <c r="E3" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F3" s="3">
         <v>11</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>635</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
+      <c r="H3" s="3">
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="6">
-        <f>658096800/1000000</f>
-        <v>658.09680000000003</v>
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="M3" s="6">
         <f>658096800/1000000</f>
         <v>658.09680000000003</v>
       </c>
-      <c r="N3" s="26">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <f t="shared" ref="O3:O54" si="0">L3-M3-N3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <f t="shared" ref="P3:P54" si="1">(M3+N3)/L3</f>
+      <c r="N3" s="6">
+        <f>658096800/1000000</f>
+        <v>658.09680000000003</v>
+      </c>
+      <c r="O3" s="26">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <f t="shared" ref="P3:P54" si="0">M3-N3-O3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" ref="Q3:Q54" si="1">(N3+O3)/M3</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="8">
-        <f t="shared" ref="Q3:Q54" si="2">O3/L3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R3" s="8">
+        <f t="shared" ref="R3:R54" si="2">P3/M3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5">
         <v>45145</v>
@@ -1083,50 +1104,53 @@
         <v>45381</v>
       </c>
       <c r="E4" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F4" s="3">
         <v>236</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>614</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
+      <c r="H4" s="3">
+        <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="6">
-        <f>3006046500/1000000</f>
-        <v>3006.0464999999999</v>
+        <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="M4" s="6">
         <f>3006046500/1000000</f>
         <v>3006.0464999999999</v>
       </c>
-      <c r="N4" s="26">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
+      <c r="N4" s="6">
+        <f>3006046500/1000000</f>
+        <v>3006.0464999999999</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q4" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R4" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5">
         <v>45145</v>
@@ -1135,42 +1159,45 @@
         <v>45381</v>
       </c>
       <c r="E5" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F5" s="3">
         <v>236</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>614</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
+      <c r="H5" s="3">
+        <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="26">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="8" t="e">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="26">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q5" s="8" t="e">
+      <c r="R5" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5">
         <v>45148</v>
@@ -1179,92 +1206,98 @@
         <v>45148</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>45759</v>
       </c>
       <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <v>611</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
+      <c r="H6" s="3">
+        <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="26">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="8" t="e">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="26">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q6" s="8" t="e">
+      <c r="R6" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5">
         <v>45160</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>45759</v>
       </c>
       <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <v>599</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
+      <c r="H7" s="3">
+        <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="6">
-        <f>1139250000/1000000</f>
-        <v>1139.25</v>
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="M7" s="6">
         <f>1139250000/1000000</f>
         <v>1139.25</v>
       </c>
-      <c r="N7" s="26">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="N7" s="6">
+        <f>1139250000/1000000</f>
+        <v>1139.25</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5">
         <v>45170</v>
@@ -1273,49 +1306,52 @@
         <v>45901</v>
       </c>
       <c r="E8" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F8" s="3">
         <v>731</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>589</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>0.80574555403556769</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="6">
+      <c r="J8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="6">
         <f>408000000/1000000</f>
         <v>408</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>408</v>
       </c>
-      <c r="N8" s="26">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="O8" s="26">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5">
         <v>45200</v>
@@ -1324,51 +1360,54 @@
         <v>45931</v>
       </c>
       <c r="E9" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F9" s="3">
         <v>731</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>559</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>0.76470588235294112</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="6">
+        <v>29</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="6">
         <f>24056722803/1000000</f>
         <v>24056.722803000001</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N9" s="7">
         <f>673475225/1000000</f>
         <v>673.47522500000002</v>
       </c>
-      <c r="N9" s="25">
+      <c r="O9" s="25">
         <f>2018951558/1000000</f>
         <v>2018.951558</v>
       </c>
-      <c r="O9" s="7">
+      <c r="P9" s="7">
         <f t="shared" si="0"/>
         <v>21364.296020000002</v>
       </c>
-      <c r="P9" s="8">
+      <c r="Q9" s="8">
         <f t="shared" si="1"/>
         <v>0.11191993211412155</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="R9" s="8">
         <f t="shared" si="2"/>
         <v>0.88808006788587845</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5">
         <v>45200</v>
@@ -1377,51 +1416,54 @@
         <v>45759</v>
       </c>
       <c r="E10" s="3">
-        <v>559</v>
+        <v>45759</v>
       </c>
       <c r="F10" s="3">
         <v>559</v>
       </c>
       <c r="G10" s="3">
+        <v>559</v>
+      </c>
+      <c r="H10" s="3">
         <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="6">
+      <c r="J10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="6">
         <f>2296247653/1000000</f>
         <v>2296.2476529999999</v>
       </c>
-      <c r="M10" s="6">
+      <c r="N10" s="6">
         <f>2186902527/1000000</f>
         <v>2186.9025270000002</v>
       </c>
-      <c r="N10" s="27">
+      <c r="O10" s="27">
         <f>(656070758-546725632)/1000000</f>
         <v>109.34512599999999</v>
       </c>
-      <c r="O10" s="7">
+      <c r="P10" s="7">
         <f t="shared" si="0"/>
         <v>-2.8421709430404007E-13</v>
       </c>
-      <c r="P10" s="8">
+      <c r="Q10" s="8">
         <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="R10" s="8">
         <f t="shared" si="2"/>
         <v>-1.237745823856222E-16</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5">
         <v>45250</v>
@@ -1430,48 +1472,51 @@
         <v>45736</v>
       </c>
       <c r="E11" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F11" s="3">
         <v>486</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>509</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>1.0473251028806585</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="26">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="8" t="e">
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="26">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="8" t="e">
+      <c r="R11" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5">
         <v>45286</v>
@@ -1480,48 +1525,51 @@
         <v>45736</v>
       </c>
       <c r="E12" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F12" s="3">
         <v>450</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>473</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>16</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="26">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="8" t="e">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="26">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q12" s="8" t="e">
+      <c r="R12" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
         <v>45314</v>
@@ -1530,50 +1578,53 @@
         <v>45770</v>
       </c>
       <c r="E13" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F13" s="3">
         <v>456</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>445</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>0.97587719298245612</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
+        <v>29</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
         <f>223076700/10000000</f>
         <v>22.307670000000002</v>
       </c>
-      <c r="N13" s="27">
+      <c r="O13" s="27">
         <f>116788650/1000000</f>
         <v>116.78865</v>
       </c>
-      <c r="O13" s="7">
+      <c r="P13" s="7">
         <f t="shared" si="0"/>
         <v>-139.09631999999999</v>
       </c>
-      <c r="P13" s="8" t="e">
+      <c r="Q13" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q13" s="8" t="e">
+      <c r="R13" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5">
         <v>45314</v>
@@ -1582,43 +1633,46 @@
         <v>45953</v>
       </c>
       <c r="E14" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F14" s="3">
         <v>639</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>445</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>0.69640062597809071</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="3">
+        <v>34</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="3">
         <v>223</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="7">
+      <c r="O14" s="26"/>
+      <c r="P14" s="7">
         <f t="shared" si="0"/>
         <v>-223</v>
       </c>
-      <c r="P14" s="8" t="e">
+      <c r="Q14" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="8" t="e">
+      <c r="R14" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5">
         <v>45321</v>
@@ -1627,46 +1681,49 @@
         <v>45838</v>
       </c>
       <c r="E15" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F15" s="3">
         <v>517</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>438</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>0.84719535783365574</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="3">
+        <v>34</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="3">
         <v>456</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>159</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="7">
+      <c r="O15" s="26"/>
+      <c r="P15" s="7">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="P15" s="8">
+      <c r="Q15" s="8">
         <f t="shared" si="1"/>
         <v>0.34868421052631576</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="R15" s="8">
         <f t="shared" si="2"/>
         <v>0.65131578947368418</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>9</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="30">
         <v>45323</v>
@@ -1675,51 +1732,54 @@
         <v>45868</v>
       </c>
       <c r="E16" s="29">
+        <v>45759</v>
+      </c>
+      <c r="F16" s="29">
         <v>545</v>
       </c>
-      <c r="F16" s="29">
+      <c r="G16" s="29">
         <v>436</v>
       </c>
-      <c r="G16" s="29">
+      <c r="H16" s="29">
         <v>0.8</v>
       </c>
-      <c r="H16" s="29" t="s">
-        <v>33</v>
-      </c>
       <c r="I16" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="31">
+        <v>34</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="31">
         <f>2709510000/1000000</f>
         <v>2709.51</v>
       </c>
-      <c r="M16" s="32">
+      <c r="N16" s="32">
         <f>1002351184/1000000</f>
         <v>1002.351184</v>
       </c>
-      <c r="N16" s="32">
+      <c r="O16" s="32">
         <f>1232487634/1000000</f>
         <v>1232.4876340000001</v>
       </c>
-      <c r="O16" s="32">
+      <c r="P16" s="32">
         <f t="shared" si="0"/>
         <v>474.67118200000004</v>
       </c>
-      <c r="P16" s="33">
+      <c r="Q16" s="33">
         <f t="shared" si="1"/>
         <v>0.8248129063926688</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="R16" s="33">
         <f t="shared" si="2"/>
         <v>0.17518709360733123</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5">
         <v>45454</v>
@@ -1728,48 +1788,51 @@
         <v>45911</v>
       </c>
       <c r="E17" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F17" s="3">
         <v>457</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>305</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>0.66739606126914663</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="26">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="8" t="e">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="26">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q17" s="8" t="e">
+      <c r="R17" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>8</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="30">
         <v>45455</v>
@@ -1778,45 +1841,48 @@
         <v>46065</v>
       </c>
       <c r="E18" s="29">
+        <v>45759</v>
+      </c>
+      <c r="F18" s="29">
         <v>610</v>
       </c>
-      <c r="F18" s="29">
+      <c r="G18" s="29">
         <v>304</v>
       </c>
-      <c r="G18" s="29">
+      <c r="H18" s="29">
         <v>0.49836065573770494</v>
       </c>
-      <c r="H18" s="29" t="s">
-        <v>28</v>
-      </c>
       <c r="I18" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="29">
+        <v>29</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="29">
         <v>8306</v>
       </c>
-      <c r="M18" s="29">
+      <c r="N18" s="29">
         <v>6152</v>
       </c>
-      <c r="O18" s="32">
+      <c r="P18" s="32">
         <f t="shared" si="0"/>
         <v>2154</v>
       </c>
-      <c r="P18" s="33">
+      <c r="Q18" s="33">
         <f t="shared" si="1"/>
         <v>0.74066939561762579</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="R18" s="33">
         <f t="shared" si="2"/>
         <v>0.25933060438237421</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5">
         <v>45474</v>
@@ -1825,46 +1891,49 @@
         <v>46203</v>
       </c>
       <c r="E19" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F19" s="3">
         <v>729</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>285</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>0.39094650205761317</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="3">
+        <v>29</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="3">
         <v>67</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <v>24.9</v>
       </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="7">
+      <c r="O19" s="26"/>
+      <c r="P19" s="7">
         <f t="shared" si="0"/>
         <v>42.1</v>
       </c>
-      <c r="P19" s="8">
+      <c r="Q19" s="8">
         <f t="shared" si="1"/>
         <v>0.37164179104477607</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="R19" s="8">
         <f t="shared" si="2"/>
         <v>0.62835820895522387</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5">
         <v>45478</v>
@@ -1873,40 +1942,43 @@
         <v>45874</v>
       </c>
       <c r="E20" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F20" s="3">
         <v>396</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>281</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>0.70959595959595956</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="8" t="e">
+        <v>29</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="26"/>
+      <c r="P20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q20" s="8" t="e">
+      <c r="R20" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5">
         <v>45505</v>
@@ -1915,46 +1987,49 @@
         <v>46234</v>
       </c>
       <c r="E21" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F21" s="3">
         <v>729</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>254</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>0.34842249657064472</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L21" s="3">
-        <v>360</v>
+        <v>29</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="M21" s="3">
         <v>360</v>
       </c>
-      <c r="N21" s="26"/>
-      <c r="O21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="8">
+      <c r="N21" s="3">
+        <v>360</v>
+      </c>
+      <c r="O21" s="26"/>
+      <c r="P21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R21" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="5">
         <v>45516</v>
@@ -1963,40 +2038,43 @@
         <v>45759</v>
       </c>
       <c r="E22" s="3">
-        <v>243</v>
+        <v>45759</v>
       </c>
       <c r="F22" s="3">
         <v>243</v>
       </c>
       <c r="G22" s="3">
+        <v>243</v>
+      </c>
+      <c r="H22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="8" t="e">
+        <v>29</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="26"/>
+      <c r="P22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q22" s="8" t="e">
+      <c r="R22" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="5">
         <v>45545</v>
@@ -2005,40 +2083,43 @@
         <v>45698</v>
       </c>
       <c r="E23" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F23" s="3">
         <v>158</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>214</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>16</v>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N23" s="26"/>
-      <c r="O23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="8" t="e">
+        <v>17</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="26"/>
+      <c r="P23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q23" s="8" t="e">
+      <c r="R23" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="5">
         <v>45545</v>
@@ -2047,46 +2128,49 @@
         <v>45787</v>
       </c>
       <c r="E24" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F24" s="3">
         <v>243</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>206</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>0.84773662551440332</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" s="3">
+        <v>29</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="3">
         <v>2571</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1286</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="7">
+      <c r="O24" s="26"/>
+      <c r="P24" s="7">
         <f t="shared" si="0"/>
         <v>1285</v>
       </c>
-      <c r="P24" s="8">
+      <c r="Q24" s="8">
         <f t="shared" si="1"/>
         <v>0.50019447685725393</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="R24" s="8">
         <f t="shared" si="2"/>
         <v>0.49980552314274601</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="5">
         <v>45566</v>
@@ -2095,43 +2179,46 @@
         <v>45850</v>
       </c>
       <c r="E25" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F25" s="3">
         <v>284</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>193</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>0.67957746478873238</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="M25" s="7"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="8" t="e">
+      <c r="N25" s="7"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q25" s="8" t="e">
+      <c r="R25" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R25" s="6"/>
-    </row>
-    <row r="26" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="5">
         <v>45574</v>
@@ -2140,46 +2227,49 @@
         <v>45818</v>
       </c>
       <c r="E26" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F26" s="3">
         <v>244</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>185</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>0.75819672131147542</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" s="3">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="M26" s="3">
         <v>18</v>
       </c>
-      <c r="N26" s="26"/>
-      <c r="O26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="8">
+      <c r="N26" s="3">
+        <v>18</v>
+      </c>
+      <c r="O26" s="26"/>
+      <c r="P26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R26" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="5">
         <v>45583</v>
@@ -2188,50 +2278,53 @@
         <v>45657</v>
       </c>
       <c r="E27" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F27" s="3">
         <v>74</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>176</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>16</v>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="3">
         <v>65</v>
       </c>
-      <c r="L27" s="3">
-        <v>65</v>
-      </c>
-      <c r="M27" s="6">
+      <c r="N27" s="6">
         <f>32500000/1000000</f>
         <v>32.5</v>
       </c>
-      <c r="N27" s="27">
+      <c r="O27" s="27">
         <f>32500000/1000000</f>
         <v>32.5</v>
       </c>
-      <c r="O27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="8">
+      <c r="P27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q27" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>16</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="5">
         <v>45589</v>
@@ -2240,48 +2333,51 @@
         <v>46752</v>
       </c>
       <c r="E28" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F28" s="3">
         <v>1163</v>
       </c>
-      <c r="F28" s="3">
+      <c r="G28" s="3">
         <v>170</v>
       </c>
-      <c r="G28" s="3">
+      <c r="H28" s="3">
         <v>0.14617368873602751</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" s="3">
+        <v>29</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="3">
         <v>1846</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
         <v>554</v>
       </c>
-      <c r="N28" s="26">
+      <c r="O28" s="26">
         <v>612.4</v>
       </c>
-      <c r="O28" s="7">
+      <c r="P28" s="7">
         <f t="shared" si="0"/>
         <v>679.6</v>
       </c>
-      <c r="P28" s="8">
+      <c r="Q28" s="8">
         <f t="shared" si="1"/>
         <v>0.63185265438786575</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="R28" s="8">
         <f t="shared" si="2"/>
         <v>0.36814734561213436</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>31</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="5">
         <v>45624</v>
@@ -2290,40 +2386,43 @@
         <v>46752</v>
       </c>
       <c r="E29" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F29" s="3">
         <v>1128</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>135</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>0.11968085106382979</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N29" s="26"/>
-      <c r="O29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="8" t="e">
+        <v>29</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O29" s="26"/>
+      <c r="P29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="8" t="e">
+      <c r="R29" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="5">
         <v>45636</v>
@@ -2332,40 +2431,43 @@
         <v>45746</v>
       </c>
       <c r="E30" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F30" s="3">
         <v>110</v>
       </c>
-      <c r="F30" s="3">
+      <c r="G30" s="3">
         <v>123</v>
       </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>16</v>
+      <c r="H30" s="3">
+        <v>0</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="8" t="e">
+        <v>17</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="26"/>
+      <c r="P30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q30" s="8" t="e">
+      <c r="R30" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="5">
         <v>45638</v>
@@ -2374,46 +2476,49 @@
         <v>45838</v>
       </c>
       <c r="E31" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F31" s="3">
         <v>200</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>121</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <v>0.60499999999999998</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1139</v>
+        <v>29</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="M31" s="3">
         <v>1139</v>
       </c>
-      <c r="N31" s="26"/>
-      <c r="O31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="8">
+      <c r="N31" s="3">
+        <v>1139</v>
+      </c>
+      <c r="O31" s="26"/>
+      <c r="P31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q31" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R31" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="5">
         <v>45646</v>
@@ -2422,40 +2527,43 @@
         <v>45342</v>
       </c>
       <c r="E32" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F32" s="3">
         <v>-304</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>113</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>16</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N32" s="26"/>
-      <c r="O32" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="8" t="e">
+        <v>17</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O32" s="26"/>
+      <c r="P32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q32" s="8" t="e">
+      <c r="R32" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="5">
         <v>45646</v>
@@ -2464,51 +2572,54 @@
         <v>45767</v>
       </c>
       <c r="E33" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F33" s="3">
         <v>121</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>113</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>0.93388429752066116</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="I33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L33" s="7">
+        <v>34</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M33" s="7">
         <f>198264725/1000000</f>
         <v>198.264725</v>
       </c>
-      <c r="M33" s="7">
+      <c r="N33" s="7">
         <f>190643863/1000000</f>
         <v>190.64386300000001</v>
       </c>
-      <c r="N33" s="25">
+      <c r="O33" s="25">
         <v>7.6208619999999998</v>
       </c>
-      <c r="O33" s="7">
+      <c r="P33" s="7">
         <f t="shared" si="0"/>
         <v>-1.1546319456101628E-14</v>
       </c>
-      <c r="P33" s="8">
+      <c r="Q33" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="8">
+      <c r="R33" s="8">
         <f t="shared" si="2"/>
         <v>-5.8236882310262847E-17</v>
       </c>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S33" s="6"/>
+    </row>
+    <row r="34" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" s="5">
         <v>45663</v>
@@ -2517,47 +2628,50 @@
         <v>46393</v>
       </c>
       <c r="E34" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F34" s="3">
         <v>730</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>96</v>
       </c>
-      <c r="G34" s="3">
+      <c r="H34" s="3">
         <v>0.13150684931506848</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L34" s="6">
+        <v>29</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34" s="6">
         <f>408000000/1000000</f>
         <v>408</v>
       </c>
-      <c r="M34" s="6"/>
-      <c r="N34" s="27">
+      <c r="N34" s="6"/>
+      <c r="O34" s="27">
         <v>136</v>
       </c>
-      <c r="O34" s="7">
+      <c r="P34" s="7">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
-      <c r="P34" s="8">
+      <c r="Q34" s="8">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="R34" s="8">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" s="5">
         <v>45663</v>
@@ -2566,46 +2680,49 @@
         <v>46476</v>
       </c>
       <c r="E35" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F35" s="3">
         <v>813</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>96</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>0.11808118081180811</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L35" s="6">
+        <v>29</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" s="6">
         <f>2848590558/1000000</f>
         <v>2848.5905579999999</v>
       </c>
-      <c r="N35" s="27">
+      <c r="O35" s="27">
         <v>459</v>
       </c>
-      <c r="O35" s="7">
+      <c r="P35" s="7">
         <f t="shared" si="0"/>
         <v>2389.5905579999999</v>
       </c>
-      <c r="P35" s="8">
+      <c r="Q35" s="8">
         <f t="shared" si="1"/>
         <v>0.16113231812516596</v>
       </c>
-      <c r="Q35" s="8">
+      <c r="R35" s="8">
         <f t="shared" si="2"/>
         <v>0.83886768187483407</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="5">
         <v>45666</v>
@@ -2614,46 +2731,49 @@
         <v>45696</v>
       </c>
       <c r="E36" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F36" s="3">
         <v>30</v>
       </c>
-      <c r="F36" s="3">
+      <c r="G36" s="3">
         <v>93</v>
       </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>16</v>
+      <c r="H36" s="3">
+        <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L36" s="3">
+        <v>17</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36" s="3">
         <f>10000000/1000000</f>
         <v>10</v>
       </c>
-      <c r="N36" s="26">
+      <c r="O36" s="26">
         <v>10</v>
       </c>
-      <c r="O36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="8">
+      <c r="P36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q36" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R36" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="5">
         <v>45694</v>
@@ -2662,46 +2782,49 @@
         <v>45874</v>
       </c>
       <c r="E37" s="3">
+        <v>45759</v>
+      </c>
+      <c r="F37" s="3">
         <v>180</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>65</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="3">
         <v>0.3611111111111111</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="I37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L37" s="3">
+        <v>34</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M37" s="3">
         <v>165987</v>
       </c>
-      <c r="M37" s="3">
+      <c r="N37" s="3">
         <v>42090</v>
       </c>
-      <c r="N37" s="26"/>
-      <c r="O37" s="7">
+      <c r="O37" s="26"/>
+      <c r="P37" s="7">
         <f t="shared" si="0"/>
         <v>123897</v>
       </c>
-      <c r="P37" s="8">
+      <c r="Q37" s="8">
         <f t="shared" si="1"/>
         <v>0.25357407507816876</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="R37" s="8">
         <f t="shared" si="2"/>
         <v>0.74642592492183124</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="5">
         <v>45762</v>
@@ -2709,44 +2832,44 @@
       <c r="D38" s="5">
         <v>45945</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="3">
         <v>180</v>
       </c>
-      <c r="F38" s="3">
+      <c r="G38" s="3">
         <v>78</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="I38" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L38" s="6">
+        <v>34</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M38" s="6">
         <f>9757908840/1000000</f>
         <v>9757.9088400000001</v>
       </c>
-      <c r="N38" s="25">
+      <c r="O38" s="25">
         <v>7374</v>
       </c>
-      <c r="O38" s="7">
+      <c r="P38" s="7">
         <f t="shared" si="0"/>
         <v>2383.9088400000001</v>
       </c>
-      <c r="P38" s="8">
+      <c r="Q38" s="8">
         <f t="shared" si="1"/>
         <v>0.75569470066908306</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="R38" s="8">
         <f t="shared" si="2"/>
         <v>0.24430529933091688</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>31</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="5">
         <v>45768</v>
@@ -2754,44 +2877,44 @@
       <c r="D39" s="5">
         <v>45890</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>120</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G39" s="3">
         <v>72</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I39" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L39" s="6">
+        <v>29</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M39" s="6">
         <f>145543755/1000000</f>
         <v>145.543755</v>
       </c>
-      <c r="N39" s="25">
+      <c r="O39" s="25">
         <v>146</v>
       </c>
-      <c r="O39" s="7">
+      <c r="P39" s="7">
         <f t="shared" si="0"/>
         <v>-0.45624499999999557</v>
       </c>
-      <c r="P39" s="8">
+      <c r="Q39" s="8">
         <f t="shared" si="1"/>
         <v>1.0031347617766218</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="R39" s="8">
         <f t="shared" si="2"/>
         <v>-3.1347617766217147E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="5">
         <v>45778</v>
@@ -2799,39 +2922,39 @@
       <c r="D40" s="5">
         <v>46143</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="3">
         <v>365</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>62</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I40" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L40" s="6">
+        <v>29</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M40" s="6">
         <f>2417361075/1000000</f>
         <v>2417.3610749999998</v>
       </c>
-      <c r="N40" s="25"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="8">
-        <f t="shared" ref="P40" si="3">(M40+N40)/L40</f>
-        <v>0</v>
-      </c>
+      <c r="O40" s="25"/>
+      <c r="P40" s="7"/>
       <c r="Q40" s="8">
-        <f t="shared" ref="Q40" si="4">O40/L40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q40" si="3">(N40+O40)/M40</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="8">
+        <f t="shared" ref="R40" si="4">P40/M40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>33</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="5">
         <v>45454</v>
@@ -2839,48 +2962,48 @@
       <c r="D41" s="5">
         <v>46245</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>791</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>386</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="I41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L41" s="3">
+        <v>34</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M41" s="3">
         <v>7685</v>
       </c>
-      <c r="M41" s="7">
+      <c r="N41" s="7">
         <f>2686200000/1000000</f>
         <v>2686.2</v>
       </c>
-      <c r="N41" s="25">
+      <c r="O41" s="25">
         <f>4442331000/1000000</f>
         <v>4442.3310000000001</v>
       </c>
-      <c r="O41" s="7">
+      <c r="P41" s="7">
         <f t="shared" si="0"/>
         <v>556.46900000000005</v>
       </c>
-      <c r="P41" s="8">
+      <c r="Q41" s="8">
         <f t="shared" si="1"/>
         <v>0.92759024072869223</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="R41" s="8">
         <f t="shared" si="2"/>
         <v>7.2409759271307744E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
         <v>34</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="30">
         <v>45461</v>
@@ -2888,49 +3011,49 @@
       <c r="D42" s="30">
         <v>46191</v>
       </c>
-      <c r="E42" s="29">
+      <c r="F42" s="29">
         <v>730</v>
       </c>
-      <c r="F42" s="29">
+      <c r="G42" s="29">
         <v>379</v>
       </c>
-      <c r="H42" s="29" t="s">
-        <v>96</v>
-      </c>
       <c r="I42" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="L42" s="31">
+        <v>97</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M42" s="31">
         <f>8306130000/1000000</f>
         <v>8306.1299999999992</v>
       </c>
-      <c r="M42" s="32">
+      <c r="N42" s="32">
         <f>6152132315/1000000</f>
         <v>6152.1323149999998</v>
       </c>
-      <c r="N42" s="32">
+      <c r="O42" s="32">
         <f>421738183/1000000</f>
         <v>421.73818299999999</v>
       </c>
-      <c r="O42" s="32">
-        <f t="shared" ref="O42" si="5">L42-M42-N42</f>
+      <c r="P42" s="32">
+        <f t="shared" ref="P42" si="5">M42-N42-O42</f>
         <v>1732.2595019999994</v>
       </c>
-      <c r="P42" s="33">
-        <f t="shared" ref="P42" si="6">(M42+N42)/L42</f>
+      <c r="Q42" s="33">
+        <f t="shared" ref="Q42" si="6">(N42+O42)/M42</f>
         <v>0.79144806281625746</v>
       </c>
-      <c r="Q42" s="33">
-        <f t="shared" ref="Q42" si="7">O42/L42</f>
+      <c r="R42" s="33">
+        <f t="shared" ref="R42" si="7">P42/M42</f>
         <v>0.20855193718374257</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" s="5">
         <v>45574</v>
@@ -2938,44 +3061,44 @@
       <c r="D43" s="5">
         <v>45848</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>275</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>266</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="I43" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L43" s="3">
-        <v>20</v>
+        <v>97</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="M43" s="3">
         <v>20</v>
       </c>
-      <c r="N43" s="26"/>
-      <c r="O43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="8">
+      <c r="N43" s="3">
+        <v>20</v>
+      </c>
+      <c r="O43" s="26"/>
+      <c r="P43" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q43" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R43" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="5">
         <v>45805</v>
@@ -2983,45 +3106,45 @@
       <c r="D44" s="5">
         <v>46109</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>304</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>35</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L44" s="6">
+      <c r="J44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M44" s="6">
         <f>1607280000/1000000</f>
         <v>1607.28</v>
       </c>
-      <c r="N44" s="25">
+      <c r="O44" s="25">
         <f>964368000/1000000</f>
         <v>964.36800000000005</v>
       </c>
-      <c r="O44" s="7">
-        <f t="shared" ref="O44" si="8">L44-M44-N44</f>
+      <c r="P44" s="7">
+        <f t="shared" ref="P44" si="8">M44-N44-O44</f>
         <v>642.91199999999992</v>
       </c>
-      <c r="P44" s="8">
-        <f t="shared" ref="P44" si="9">(M44+N44)/L44</f>
+      <c r="Q44" s="8">
+        <f t="shared" ref="Q44" si="9">(N44+O44)/M44</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="Q44" s="8">
-        <f t="shared" ref="Q44" si="10">O44/L44</f>
+      <c r="R44" s="8">
+        <f t="shared" ref="R44" si="10">P44/M44</f>
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" s="5">
         <v>45818</v>
@@ -3029,41 +3152,41 @@
       <c r="D45" s="5">
         <v>45667</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>214</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="I45" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L45" s="6">
-        <v>0</v>
-      </c>
-      <c r="N45" s="25"/>
-      <c r="O45" s="7">
-        <f t="shared" ref="O45" si="11">L45-M45-N45</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="8" t="e">
-        <f t="shared" ref="P45" si="12">(M45+N45)/L45</f>
+        <v>100</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="25"/>
+      <c r="P45" s="7">
+        <f t="shared" ref="P45" si="11">M45-N45-O45</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="8" t="e">
+        <f t="shared" ref="Q45" si="12">(N45+O45)/M45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q45" s="8" t="e">
-        <f t="shared" ref="Q45" si="13">O45/L45</f>
+      <c r="R45" s="8" t="e">
+        <f t="shared" ref="R45" si="13">P45/M45</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="5">
         <v>45545</v>
@@ -3071,49 +3194,49 @@
       <c r="D46" s="5">
         <v>45971</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>426</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>325</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="I46" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L46" s="6">
+        <v>97</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M46" s="6">
         <f>3120776655/1000000</f>
         <v>3120.7766550000001</v>
       </c>
-      <c r="M46" s="7">
+      <c r="N46" s="7">
         <f>1285728153/1000000</f>
         <v>1285.728153</v>
       </c>
-      <c r="N46" s="25">
+      <c r="O46" s="25">
         <f>1522970837/1000000</f>
         <v>1522.9708370000001</v>
       </c>
-      <c r="O46" s="7">
-        <f t="shared" ref="O46" si="14">L46-M46-N46</f>
+      <c r="P46" s="7">
+        <f t="shared" ref="P46" si="14">M46-N46-O46</f>
         <v>312.07766500000002</v>
       </c>
-      <c r="P46" s="8">
-        <f t="shared" ref="P46" si="15">(M46+N46)/L46</f>
+      <c r="Q46" s="8">
+        <f t="shared" ref="Q46" si="15">(N46+O46)/M46</f>
         <v>0.90000000016021642</v>
       </c>
-      <c r="Q46" s="8">
-        <f t="shared" ref="Q46" si="16">O46/L46</f>
+      <c r="R46" s="8">
+        <f t="shared" ref="R46" si="16">P46/M46</f>
         <v>9.9999999839783471E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>39</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" s="5">
         <v>45831</v>
@@ -3121,45 +3244,45 @@
       <c r="D47" s="5">
         <v>45953</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>122</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L47" s="6">
+      <c r="J47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M47" s="6">
         <f>255300000/1000000</f>
         <v>255.3</v>
       </c>
-      <c r="N47" s="27">
+      <c r="O47" s="27">
         <f>178.7</f>
         <v>178.7</v>
       </c>
-      <c r="O47" s="7">
-        <f t="shared" ref="O47" si="17">L47-M47-N47</f>
+      <c r="P47" s="7">
+        <f t="shared" ref="P47" si="17">M47-N47-O47</f>
         <v>76.600000000000023</v>
       </c>
-      <c r="P47" s="8">
-        <f t="shared" ref="P47" si="18">(M47+N47)/L47</f>
+      <c r="Q47" s="8">
+        <f t="shared" ref="Q47" si="18">(N47+O47)/M47</f>
         <v>0.69996083039561297</v>
       </c>
-      <c r="Q47" s="8">
-        <f t="shared" ref="Q47" si="19">O47/L47</f>
+      <c r="R47" s="8">
+        <f t="shared" ref="R47" si="19">P47/M47</f>
         <v>0.30003916960438709</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>40</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" s="5">
         <v>45831</v>
@@ -3167,46 +3290,46 @@
       <c r="D48" s="5">
         <v>46500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>669</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="I48" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L48" s="6">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M48" s="6">
         <f>1565647431/1000000</f>
         <v>1565.6474310000001</v>
       </c>
-      <c r="N48" s="25">
+      <c r="O48" s="25">
         <f>1226004590/1000000</f>
         <v>1226.00459</v>
       </c>
-      <c r="O48" s="7">
-        <f t="shared" ref="O48" si="20">L48-M48-N48</f>
+      <c r="P48" s="7">
+        <f t="shared" ref="P48" si="20">M48-N48-O48</f>
         <v>339.64284100000009</v>
       </c>
-      <c r="P48" s="8">
-        <f t="shared" ref="P48" si="21">(M48+N48)/L48</f>
+      <c r="Q48" s="8">
+        <f t="shared" ref="Q48" si="21">(N48+O48)/M48</f>
         <v>0.78306556490622825</v>
       </c>
-      <c r="Q48" s="8">
-        <f t="shared" ref="Q48" si="22">O48/L48</f>
+      <c r="R48" s="8">
+        <f t="shared" ref="R48" si="22">P48/M48</f>
         <v>0.2169344350937718</v>
       </c>
-      <c r="R48" s="8"/>
-    </row>
-    <row r="49" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S48" s="8"/>
+    </row>
+    <row r="49" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>41</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C49" s="5">
         <v>45839</v>
@@ -3214,43 +3337,43 @@
       <c r="D49" s="5">
         <v>46113</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>274</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="I49" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L49" s="6">
+        <v>100</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M49" s="6">
         <f>700121666/1000000</f>
         <v>700.121666</v>
       </c>
-      <c r="N49" s="27">
+      <c r="O49" s="27">
         <f>420072989/1000000</f>
         <v>420.07298900000001</v>
       </c>
-      <c r="O49" s="7">
-        <f t="shared" ref="O49:O50" si="23">L49-M49-N49</f>
+      <c r="P49" s="7">
+        <f t="shared" ref="P49:P50" si="23">M49-N49-O49</f>
         <v>280.048677</v>
       </c>
-      <c r="P49" s="8">
-        <f t="shared" ref="P49" si="24">(M49+N49)/L49</f>
+      <c r="Q49" s="8">
+        <f t="shared" ref="Q49" si="24">(N49+O49)/M49</f>
         <v>0.59999998485977435</v>
       </c>
-      <c r="Q49" s="8">
-        <f t="shared" ref="Q49" si="25">O49/L49</f>
+      <c r="R49" s="8">
+        <f t="shared" ref="R49" si="25">P49/M49</f>
         <v>0.40000001514022565</v>
       </c>
-      <c r="R49" s="8"/>
-    </row>
-    <row r="50" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S49" s="8"/>
+    </row>
+    <row r="50" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>42</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" s="11">
         <v>45778</v>
@@ -3258,44 +3381,44 @@
       <c r="D50" s="11">
         <v>46143</v>
       </c>
-      <c r="E50" s="9">
+      <c r="F50" s="9">
         <v>365</v>
       </c>
-      <c r="F50" s="9">
+      <c r="G50" s="9">
         <v>111</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="I50" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J50" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I50" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L50" s="9">
+      <c r="M50" s="9">
         <v>2417</v>
       </c>
-      <c r="N50" s="25">
+      <c r="O50" s="25">
         <v>1875</v>
       </c>
-      <c r="O50" s="12">
+      <c r="P50" s="12">
         <f t="shared" si="23"/>
         <v>542</v>
       </c>
-      <c r="P50" s="13">
+      <c r="Q50" s="13">
         <f t="shared" si="1"/>
         <v>0.77575506826644602</v>
       </c>
-      <c r="Q50" s="13">
+      <c r="R50" s="13">
         <f t="shared" si="2"/>
         <v>0.224244931733554</v>
       </c>
-      <c r="R50" s="13"/>
-    </row>
-    <row r="51" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S50" s="13"/>
+    </row>
+    <row r="51" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>43</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" s="11">
         <v>45852</v>
@@ -3303,44 +3426,44 @@
       <c r="D51" s="11">
         <v>46217</v>
       </c>
-      <c r="E51" s="9">
+      <c r="F51" s="9">
         <v>365</v>
       </c>
-      <c r="F51" s="9">
+      <c r="G51" s="9">
         <v>38</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="I51" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J51" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L51" s="9">
+      <c r="M51" s="9">
         <v>920</v>
       </c>
-      <c r="N51" s="26">
+      <c r="O51" s="26">
         <v>552</v>
       </c>
-      <c r="O51" s="12">
+      <c r="P51" s="12">
         <f t="shared" si="0"/>
         <v>368</v>
       </c>
-      <c r="P51" s="13">
+      <c r="Q51" s="13">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="Q51" s="13">
+      <c r="R51" s="13">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="R51" s="13"/>
-    </row>
-    <row r="52" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S51" s="13"/>
+    </row>
+    <row r="52" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>44</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="11">
         <v>45818</v>
@@ -3348,45 +3471,45 @@
       <c r="D52" s="11">
         <v>46063</v>
       </c>
-      <c r="E52" s="9">
+      <c r="F52" s="9">
         <v>245</v>
       </c>
-      <c r="F52" s="9">
+      <c r="G52" s="9">
         <v>71</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="I52" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L52" s="9">
+        <v>97</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M52" s="9">
         <v>197</v>
       </c>
-      <c r="N52" s="25">
+      <c r="O52" s="25">
         <f>187207190/1000000</f>
         <v>187.20719</v>
       </c>
-      <c r="O52" s="12">
+      <c r="P52" s="12">
         <f t="shared" si="0"/>
         <v>9.7928100000000029</v>
       </c>
-      <c r="P52" s="13">
+      <c r="Q52" s="13">
         <f t="shared" si="1"/>
         <v>0.95029030456852792</v>
       </c>
-      <c r="Q52" s="13">
+      <c r="R52" s="13">
         <f t="shared" si="2"/>
         <v>4.9709695431472099E-2</v>
       </c>
-      <c r="R52" s="13"/>
-    </row>
-    <row r="53" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S52" s="13"/>
+    </row>
+    <row r="53" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>45</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" s="11">
         <v>45250</v>
@@ -3394,48 +3517,48 @@
       <c r="D53" s="11">
         <v>46042</v>
       </c>
-      <c r="E53" s="9">
+      <c r="F53" s="9">
         <v>645</v>
       </c>
-      <c r="F53" s="9">
+      <c r="G53" s="9">
         <v>639</v>
       </c>
-      <c r="H53" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="I53" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L53" s="9">
+        <v>97</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53" s="9">
         <v>2805</v>
       </c>
-      <c r="M53" s="12">
+      <c r="N53" s="12">
         <f>1282848184/1000000</f>
         <v>1282.8481839999999</v>
       </c>
-      <c r="N53" s="25">
+      <c r="O53" s="25">
         <v>1413</v>
       </c>
-      <c r="O53" s="12">
+      <c r="P53" s="12">
         <f t="shared" si="0"/>
         <v>109.15181600000005</v>
       </c>
-      <c r="P53" s="13">
+      <c r="Q53" s="13">
         <f t="shared" si="1"/>
         <v>0.96108669661319068</v>
       </c>
-      <c r="Q53" s="13">
+      <c r="R53" s="13">
         <f t="shared" si="2"/>
         <v>3.8913303386809289E-2</v>
       </c>
-      <c r="R53" s="13"/>
-    </row>
-    <row r="54" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S53" s="13"/>
+    </row>
+    <row r="54" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>46</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" s="11">
         <v>45845</v>
@@ -3443,45 +3566,45 @@
       <c r="D54" s="11">
         <v>45846</v>
       </c>
-      <c r="E54" s="9">
+      <c r="F54" s="9">
         <v>120</v>
       </c>
-      <c r="F54" s="9">
+      <c r="G54" s="9">
         <v>43</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="I54" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L54" s="14">
+        <v>100</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M54" s="14">
         <f>312307300/1000000</f>
         <v>312.3073</v>
       </c>
-      <c r="N54" s="27">
+      <c r="O54" s="27">
         <v>296.60000000000002</v>
       </c>
-      <c r="O54" s="12">
+      <c r="P54" s="12">
         <f t="shared" si="0"/>
         <v>15.707299999999975</v>
       </c>
-      <c r="P54" s="13">
+      <c r="Q54" s="13">
         <f t="shared" si="1"/>
         <v>0.94970562647751122</v>
       </c>
-      <c r="Q54" s="13">
+      <c r="R54" s="13">
         <f t="shared" si="2"/>
         <v>5.0294373522488826E-2</v>
       </c>
-      <c r="R54" s="13"/>
-    </row>
-    <row r="55" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S54" s="13"/>
+    </row>
+    <row r="55" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
         <v>47</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" s="17">
         <v>45867</v>
@@ -3489,34 +3612,34 @@
       <c r="D55" s="17">
         <v>45959</v>
       </c>
-      <c r="E55" s="15">
+      <c r="F55" s="15">
         <v>92</v>
       </c>
-      <c r="F55" s="15">
+      <c r="G55" s="15">
         <v>38</v>
       </c>
-      <c r="H55" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="I55" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="L55" s="18">
+        <v>100</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M55" s="18">
         <v>2425</v>
       </c>
-      <c r="N55" s="26">
+      <c r="O55" s="26">
         <v>727.6</v>
       </c>
-      <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
-    </row>
-    <row r="56" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S55" s="19"/>
+    </row>
+    <row r="56" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>48</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C56" s="17">
         <v>45820</v>
@@ -3524,34 +3647,34 @@
       <c r="D56" s="17">
         <v>46430</v>
       </c>
-      <c r="E56" s="15">
+      <c r="F56" s="15">
         <v>976</v>
       </c>
-      <c r="F56" s="15">
+      <c r="G56" s="15">
         <v>450</v>
       </c>
-      <c r="H56" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="I56" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L56" s="18">
+        <v>97</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M56" s="18">
         <v>9902</v>
       </c>
-      <c r="M56" s="15">
+      <c r="N56" s="15">
         <v>6327</v>
       </c>
-      <c r="N56" s="26">
+      <c r="O56" s="26">
         <v>724</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
         <v>49</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C57" s="17">
         <v>45910</v>
@@ -3559,29 +3682,29 @@
       <c r="D57" s="17">
         <v>46032</v>
       </c>
-      <c r="E57" s="15">
+      <c r="F57" s="15">
         <v>488</v>
       </c>
-      <c r="F57" s="15">
+      <c r="G57" s="15">
         <v>359</v>
       </c>
-      <c r="H57" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="I57" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="L57" s="21">
+        <v>97</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M57" s="21">
         <v>3121</v>
       </c>
-      <c r="N57" s="26"/>
-    </row>
-    <row r="58" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O57" s="26"/>
+    </row>
+    <row r="58" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
         <v>50</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C58" s="17">
         <v>45883</v>
@@ -3589,31 +3712,31 @@
       <c r="D58" s="17">
         <v>46415</v>
       </c>
-      <c r="E58" s="15">
+      <c r="F58" s="15">
         <v>533</v>
       </c>
-      <c r="F58" s="15">
+      <c r="G58" s="15">
         <v>22</v>
       </c>
-      <c r="H58" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="I58" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="L58" s="21">
+        <v>100</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M58" s="21">
         <v>26151</v>
       </c>
-      <c r="N58" s="26">
+      <c r="O58" s="26">
         <v>10.268000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
         <v>51</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C59" s="17">
         <v>45895</v>
@@ -3621,29 +3744,29 @@
       <c r="D59" s="17">
         <v>46446</v>
       </c>
-      <c r="E59" s="15">
+      <c r="F59" s="15">
         <v>549</v>
       </c>
-      <c r="F59" s="15">
+      <c r="G59" s="15">
         <v>8</v>
       </c>
-      <c r="H59" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="I59" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L59" s="21">
+        <v>100</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M59" s="21">
         <v>1547</v>
       </c>
-      <c r="N59" s="26"/>
-    </row>
-    <row r="60" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O59" s="26"/>
+    </row>
+    <row r="60" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
         <v>52</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C60" s="17">
         <v>45901</v>
@@ -3651,31 +3774,31 @@
       <c r="D60" s="17">
         <v>46173</v>
       </c>
-      <c r="E60" s="15">
+      <c r="F60" s="15">
         <v>273</v>
       </c>
-      <c r="F60" s="15">
+      <c r="G60" s="15">
         <v>4</v>
       </c>
-      <c r="H60" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="I60" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="L60" s="21">
+        <v>100</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M60" s="21">
         <v>292</v>
       </c>
-      <c r="N60" s="26">
+      <c r="O60" s="26">
         <v>194.5</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <v>53</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="17">
         <v>45901</v>
@@ -3683,31 +3806,31 @@
       <c r="D61" s="17">
         <v>46082</v>
       </c>
-      <c r="E61" s="15">
+      <c r="F61" s="15">
         <v>181</v>
       </c>
-      <c r="F61" s="15">
+      <c r="G61" s="15">
         <v>4</v>
       </c>
-      <c r="H61" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="I61" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="L61" s="21">
+        <v>100</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="M61" s="21">
         <v>2527</v>
       </c>
-      <c r="N61" s="26">
+      <c r="O61" s="26">
         <v>1638</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
         <v>54</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C62" s="17">
         <v>45478</v>
@@ -3715,29 +3838,29 @@
       <c r="D62" s="17">
         <v>46447</v>
       </c>
-      <c r="E62" s="15">
+      <c r="F62" s="15">
         <v>969</v>
       </c>
-      <c r="F62" s="15">
+      <c r="G62" s="15">
         <v>427</v>
       </c>
-      <c r="H62" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="I62" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="L62" s="21">
+        <v>97</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="M62" s="21">
         <v>165987</v>
       </c>
-      <c r="N62" s="26"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="26"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>56</v>
       </c>

--- a/data/data_kontrak_new.xlsx
+++ b/data/data_kontrak_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42AB9FF-DB7F-BA44-BBEB-A2DD1D862100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55862D2-D326-A349-9C3E-C3E1C12F2AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30200" windowHeight="18880" xr2:uid="{8AB47025-A3BF-0940-B260-25D870F910D3}"/>
+    <workbookView xWindow="15560" yWindow="2380" windowWidth="19980" windowHeight="18340" xr2:uid="{8AB47025-A3BF-0940-B260-25D870F910D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,17 +39,15 @@
     <author>Finance-INA</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{30895D94-3AB1-440E-8A63-F67131120996}">
-      <text>
-        <t/>
-      </text>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{30895D94-3AB1-440E-8A63-F67131120996}">
+      <text/>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="120">
   <si>
     <t>No.</t>
   </si>
@@ -63,9 +61,6 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>Cut Off (SO)</t>
-  </si>
-  <si>
     <t>PLANED DAYS</t>
   </si>
   <si>
@@ -408,10 +403,10 @@
     <t>INCA &amp; KSO PDS</t>
   </si>
   <si>
-    <t>Realisasi_On_2023-2024</t>
-  </si>
-  <si>
-    <t>Realisasi_On_2025</t>
+    <t>Realisasi_On_ 2023-2024</t>
+  </si>
+  <si>
+    <t>Realisasi_On _2025</t>
   </si>
 </sst>
 </file>
@@ -423,7 +418,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -457,12 +452,6 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -896,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF85CBC-8EAD-2144-9BDB-7951ABAA9BFA}">
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,22 +897,21 @@
     <col min="2" max="2" width="78.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="27.1640625" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" customWidth="1"/>
-    <col min="13" max="13" width="28.33203125" customWidth="1"/>
-    <col min="14" max="14" width="37.83203125" customWidth="1"/>
-    <col min="15" max="15" width="24.5" style="28" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" customWidth="1"/>
+    <col min="14" max="14" width="34.6640625" style="28" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -961,13 +949,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>120</v>
       </c>
       <c r="P1" s="22" t="s">
         <v>13</v>
@@ -975,16 +963,13 @@
       <c r="Q1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5">
         <v>45103</v>
@@ -993,54 +978,51 @@
         <v>45348</v>
       </c>
       <c r="E2" s="3">
-        <v>45759</v>
+        <v>245</v>
       </c>
       <c r="F2" s="3">
-        <v>245</v>
+        <v>656</v>
       </c>
       <c r="G2" s="3">
-        <v>656</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="6">
+      <c r="L2" s="6">
         <f>66600000/1000000</f>
         <v>66.599999999999994</v>
       </c>
-      <c r="N2" s="7">
+      <c r="M2" s="7">
         <f>13875000/1000000</f>
         <v>13.875</v>
       </c>
-      <c r="O2" s="25">
+      <c r="N2" s="25">
         <f>19425000/1000000</f>
         <v>19.425000000000001</v>
       </c>
-      <c r="P2" s="7">
-        <f>M2-N2-O2</f>
+      <c r="O2" s="7">
+        <f>L2-M2-N2</f>
         <v>33.299999999999997</v>
       </c>
+      <c r="P2" s="8">
+        <f>(M2+N2)/L2</f>
+        <v>0.5</v>
+      </c>
       <c r="Q2" s="8">
-        <f>(N2+O2)/M2</f>
+        <f>O2/L2</f>
         <v>0.5</v>
       </c>
-      <c r="R2" s="8">
-        <f>P2/M2</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5">
         <v>45124</v>
@@ -1049,53 +1031,50 @@
         <v>45135</v>
       </c>
       <c r="E3" s="3">
-        <v>45759</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3">
-        <v>11</v>
+        <v>635</v>
       </c>
       <c r="G3" s="3">
-        <v>635</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="L3" s="6">
+        <f>658096800/1000000</f>
+        <v>658.09680000000003</v>
       </c>
       <c r="M3" s="6">
         <f>658096800/1000000</f>
         <v>658.09680000000003</v>
       </c>
-      <c r="N3" s="6">
-        <f>658096800/1000000</f>
-        <v>658.09680000000003</v>
-      </c>
-      <c r="O3" s="26">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <f t="shared" ref="P3:P54" si="0">M3-N3-O3</f>
-        <v>0</v>
+      <c r="N3" s="26">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <f t="shared" ref="O3:O54" si="0">L3-M3-N3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <f t="shared" ref="P3:P54" si="1">(M3+N3)/L3</f>
+        <v>1</v>
       </c>
       <c r="Q3" s="8">
-        <f t="shared" ref="Q3:Q54" si="1">(N3+O3)/M3</f>
-        <v>1</v>
-      </c>
-      <c r="R3" s="8">
-        <f t="shared" ref="R3:R54" si="2">P3/M3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q3:Q54" si="2">O3/L3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5">
         <v>45145</v>
@@ -1104,53 +1083,50 @@
         <v>45381</v>
       </c>
       <c r="E4" s="3">
-        <v>45759</v>
+        <v>236</v>
       </c>
       <c r="F4" s="3">
-        <v>236</v>
+        <v>614</v>
       </c>
       <c r="G4" s="3">
-        <v>614</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L4" s="6">
+        <f>3006046500/1000000</f>
+        <v>3006.0464999999999</v>
       </c>
       <c r="M4" s="6">
         <f>3006046500/1000000</f>
         <v>3006.0464999999999</v>
       </c>
-      <c r="N4" s="6">
-        <f>3006046500/1000000</f>
-        <v>3006.0464999999999</v>
-      </c>
-      <c r="O4" s="26">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N4" s="26">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q4" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R4" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5">
         <v>45145</v>
@@ -1159,45 +1135,42 @@
         <v>45381</v>
       </c>
       <c r="E5" s="3">
-        <v>45759</v>
+        <v>236</v>
       </c>
       <c r="F5" s="3">
-        <v>236</v>
+        <v>614</v>
       </c>
       <c r="G5" s="3">
-        <v>614</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="26">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="N5" s="26">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q5" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R5" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5">
         <v>45148</v>
@@ -1206,98 +1179,92 @@
         <v>45148</v>
       </c>
       <c r="E6" s="3">
-        <v>45759</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="G6" s="3">
-        <v>611</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="26">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q6" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R6" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5">
         <v>45160</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="3">
-        <v>45759</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="G7" s="3">
-        <v>599</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="L7" s="6">
+        <f>1139250000/1000000</f>
+        <v>1139.25</v>
       </c>
       <c r="M7" s="6">
         <f>1139250000/1000000</f>
         <v>1139.25</v>
       </c>
-      <c r="N7" s="6">
-        <f>1139250000/1000000</f>
-        <v>1139.25</v>
-      </c>
-      <c r="O7" s="26">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N7" s="26">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q7" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5">
         <v>45170</v>
@@ -1306,52 +1273,49 @@
         <v>45901</v>
       </c>
       <c r="E8" s="3">
-        <v>45759</v>
+        <v>731</v>
       </c>
       <c r="F8" s="3">
-        <v>731</v>
+        <v>589</v>
       </c>
       <c r="G8" s="3">
-        <v>589</v>
-      </c>
-      <c r="H8" s="3">
         <v>0.80574555403556769</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="6">
+      <c r="L8" s="6">
         <f>408000000/1000000</f>
         <v>408</v>
       </c>
-      <c r="N8" s="3">
+      <c r="M8" s="3">
         <v>408</v>
       </c>
-      <c r="O8" s="26">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N8" s="26">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q8" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5">
         <v>45200</v>
@@ -1360,54 +1324,51 @@
         <v>45931</v>
       </c>
       <c r="E9" s="3">
-        <v>45759</v>
+        <v>731</v>
       </c>
       <c r="F9" s="3">
-        <v>731</v>
+        <v>559</v>
       </c>
       <c r="G9" s="3">
-        <v>559</v>
-      </c>
-      <c r="H9" s="3">
         <v>0.76470588235294112</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="6">
+        <v>31</v>
+      </c>
+      <c r="L9" s="6">
         <f>24056722803/1000000</f>
         <v>24056.722803000001</v>
       </c>
-      <c r="N9" s="7">
+      <c r="M9" s="7">
         <f>673475225/1000000</f>
         <v>673.47522500000002</v>
       </c>
-      <c r="O9" s="25">
+      <c r="N9" s="25">
         <f>2018951558/1000000</f>
         <v>2018.951558</v>
       </c>
-      <c r="P9" s="7">
+      <c r="O9" s="7">
         <f t="shared" si="0"/>
         <v>21364.296020000002</v>
       </c>
+      <c r="P9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.11191993211412155</v>
+      </c>
       <c r="Q9" s="8">
-        <f t="shared" si="1"/>
-        <v>0.11191993211412155</v>
-      </c>
-      <c r="R9" s="8">
         <f t="shared" si="2"/>
         <v>0.88808006788587845</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5">
         <v>45200</v>
@@ -1416,54 +1377,51 @@
         <v>45759</v>
       </c>
       <c r="E10" s="3">
-        <v>45759</v>
+        <v>559</v>
       </c>
       <c r="F10" s="3">
         <v>559</v>
       </c>
       <c r="G10" s="3">
-        <v>559</v>
-      </c>
-      <c r="H10" s="3">
         <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="L10" s="6">
         <f>2296247653/1000000</f>
         <v>2296.2476529999999</v>
       </c>
-      <c r="N10" s="6">
+      <c r="M10" s="6">
         <f>2186902527/1000000</f>
         <v>2186.9025270000002</v>
       </c>
-      <c r="O10" s="27">
+      <c r="N10" s="27">
         <f>(656070758-546725632)/1000000</f>
         <v>109.34512599999999</v>
       </c>
-      <c r="P10" s="7">
+      <c r="O10" s="7">
         <f t="shared" si="0"/>
         <v>-2.8421709430404007E-13</v>
       </c>
+      <c r="P10" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
+      </c>
       <c r="Q10" s="8">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="R10" s="8">
         <f t="shared" si="2"/>
         <v>-1.237745823856222E-16</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5">
         <v>45250</v>
@@ -1472,51 +1430,48 @@
         <v>45736</v>
       </c>
       <c r="E11" s="3">
-        <v>45759</v>
+        <v>486</v>
       </c>
       <c r="F11" s="3">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="G11" s="3">
-        <v>509</v>
-      </c>
-      <c r="H11" s="3">
         <v>1.0473251028806585</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="26">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N11" s="26">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q11" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="5">
         <v>45286</v>
@@ -1525,51 +1480,48 @@
         <v>45736</v>
       </c>
       <c r="E12" s="3">
-        <v>45759</v>
+        <v>450</v>
       </c>
       <c r="F12" s="3">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="G12" s="3">
-        <v>473</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="26">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N12" s="26">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q12" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R12" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
         <v>45314</v>
@@ -1578,53 +1530,50 @@
         <v>45770</v>
       </c>
       <c r="E13" s="3">
-        <v>45759</v>
+        <v>456</v>
       </c>
       <c r="F13" s="3">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G13" s="3">
-        <v>445</v>
-      </c>
-      <c r="H13" s="3">
         <v>0.97587719298245612</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
+        <v>39</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
         <f>223076700/10000000</f>
         <v>22.307670000000002</v>
       </c>
-      <c r="O13" s="27">
+      <c r="N13" s="27">
         <f>116788650/1000000</f>
         <v>116.78865</v>
       </c>
-      <c r="P13" s="7">
+      <c r="O13" s="7">
         <f t="shared" si="0"/>
         <v>-139.09631999999999</v>
       </c>
+      <c r="P13" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q13" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R13" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5">
         <v>45314</v>
@@ -1633,46 +1582,43 @@
         <v>45953</v>
       </c>
       <c r="E14" s="3">
-        <v>45759</v>
+        <v>639</v>
       </c>
       <c r="F14" s="3">
-        <v>639</v>
+        <v>445</v>
       </c>
       <c r="G14" s="3">
-        <v>445</v>
-      </c>
-      <c r="H14" s="3">
         <v>0.69640062597809071</v>
       </c>
+      <c r="H14" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="3">
+        <v>39</v>
+      </c>
+      <c r="M14" s="3">
         <v>223</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="7">
+      <c r="N14" s="26"/>
+      <c r="O14" s="7">
         <f t="shared" si="0"/>
         <v>-223</v>
       </c>
+      <c r="P14" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Q14" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R14" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5">
         <v>45321</v>
@@ -1681,49 +1627,46 @@
         <v>45838</v>
       </c>
       <c r="E15" s="3">
-        <v>45759</v>
+        <v>517</v>
       </c>
       <c r="F15" s="3">
-        <v>517</v>
+        <v>438</v>
       </c>
       <c r="G15" s="3">
-        <v>438</v>
-      </c>
-      <c r="H15" s="3">
         <v>0.84719535783365574</v>
       </c>
+      <c r="H15" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="L15" s="3">
+        <v>456</v>
       </c>
       <c r="M15" s="3">
-        <v>456</v>
-      </c>
-      <c r="N15" s="3">
         <v>159</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="7">
+      <c r="N15" s="26"/>
+      <c r="O15" s="7">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
+      <c r="P15" s="8">
+        <f t="shared" si="1"/>
+        <v>0.34868421052631576</v>
+      </c>
       <c r="Q15" s="8">
-        <f t="shared" si="1"/>
-        <v>0.34868421052631576</v>
-      </c>
-      <c r="R15" s="8">
         <f t="shared" si="2"/>
         <v>0.65131578947368418</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>9</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="30">
         <v>45323</v>
@@ -1732,54 +1675,51 @@
         <v>45868</v>
       </c>
       <c r="E16" s="29">
-        <v>45759</v>
+        <v>545</v>
       </c>
       <c r="F16" s="29">
-        <v>545</v>
+        <v>436</v>
       </c>
       <c r="G16" s="29">
-        <v>436</v>
-      </c>
-      <c r="H16" s="29">
         <v>0.8</v>
       </c>
+      <c r="H16" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="I16" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="31">
+        <v>43</v>
+      </c>
+      <c r="L16" s="31">
         <f>2709510000/1000000</f>
         <v>2709.51</v>
       </c>
-      <c r="N16" s="32">
+      <c r="M16" s="32">
         <f>1002351184/1000000</f>
         <v>1002.351184</v>
       </c>
-      <c r="O16" s="32">
+      <c r="N16" s="32">
         <f>1232487634/1000000</f>
         <v>1232.4876340000001</v>
       </c>
-      <c r="P16" s="32">
+      <c r="O16" s="32">
         <f t="shared" si="0"/>
         <v>474.67118200000004</v>
       </c>
+      <c r="P16" s="33">
+        <f t="shared" si="1"/>
+        <v>0.8248129063926688</v>
+      </c>
       <c r="Q16" s="33">
-        <f t="shared" si="1"/>
-        <v>0.8248129063926688</v>
-      </c>
-      <c r="R16" s="33">
         <f t="shared" si="2"/>
         <v>0.17518709360733123</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5">
         <v>45454</v>
@@ -1788,51 +1728,48 @@
         <v>45911</v>
       </c>
       <c r="E17" s="3">
-        <v>45759</v>
+        <v>457</v>
       </c>
       <c r="F17" s="3">
-        <v>457</v>
+        <v>305</v>
       </c>
       <c r="G17" s="3">
-        <v>305</v>
-      </c>
-      <c r="H17" s="3">
         <v>0.66739606126914663</v>
       </c>
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="26">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N17" s="26">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q17" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R17" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>8</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="30">
         <v>45455</v>
@@ -1841,48 +1778,45 @@
         <v>46065</v>
       </c>
       <c r="E18" s="29">
-        <v>45759</v>
+        <v>610</v>
       </c>
       <c r="F18" s="29">
-        <v>610</v>
+        <v>304</v>
       </c>
       <c r="G18" s="29">
-        <v>304</v>
-      </c>
-      <c r="H18" s="29">
         <v>0.49836065573770494</v>
       </c>
+      <c r="H18" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="I18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="L18" s="29">
+        <v>8306</v>
       </c>
       <c r="M18" s="29">
-        <v>8306</v>
-      </c>
-      <c r="N18" s="29">
         <v>6152</v>
       </c>
-      <c r="P18" s="32">
+      <c r="O18" s="32">
         <f t="shared" si="0"/>
         <v>2154</v>
       </c>
+      <c r="P18" s="33">
+        <f t="shared" si="1"/>
+        <v>0.74066939561762579</v>
+      </c>
       <c r="Q18" s="33">
-        <f t="shared" si="1"/>
-        <v>0.74066939561762579</v>
-      </c>
-      <c r="R18" s="33">
         <f t="shared" si="2"/>
         <v>0.25933060438237421</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5">
         <v>45474</v>
@@ -1891,49 +1825,46 @@
         <v>46203</v>
       </c>
       <c r="E19" s="3">
-        <v>45759</v>
+        <v>729</v>
       </c>
       <c r="F19" s="3">
-        <v>729</v>
+        <v>285</v>
       </c>
       <c r="G19" s="3">
-        <v>285</v>
-      </c>
-      <c r="H19" s="3">
         <v>0.39094650205761317</v>
       </c>
+      <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="L19" s="3">
+        <v>67</v>
       </c>
       <c r="M19" s="3">
-        <v>67</v>
-      </c>
-      <c r="N19" s="3">
         <v>24.9</v>
       </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="7">
+      <c r="N19" s="26"/>
+      <c r="O19" s="7">
         <f t="shared" si="0"/>
         <v>42.1</v>
       </c>
+      <c r="P19" s="8">
+        <f t="shared" si="1"/>
+        <v>0.37164179104477607</v>
+      </c>
       <c r="Q19" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37164179104477607</v>
-      </c>
-      <c r="R19" s="8">
         <f t="shared" si="2"/>
         <v>0.62835820895522387</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5">
         <v>45478</v>
@@ -1942,43 +1873,40 @@
         <v>45874</v>
       </c>
       <c r="E20" s="3">
-        <v>45759</v>
+        <v>396</v>
       </c>
       <c r="F20" s="3">
-        <v>396</v>
+        <v>281</v>
       </c>
       <c r="G20" s="3">
-        <v>281</v>
-      </c>
-      <c r="H20" s="3">
         <v>0.70959595959595956</v>
       </c>
+      <c r="H20" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="N20" s="26"/>
+      <c r="O20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q20" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R20" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5">
         <v>45505</v>
@@ -1987,49 +1915,46 @@
         <v>46234</v>
       </c>
       <c r="E21" s="3">
-        <v>45759</v>
+        <v>729</v>
       </c>
       <c r="F21" s="3">
-        <v>729</v>
+        <v>254</v>
       </c>
       <c r="G21" s="3">
-        <v>254</v>
-      </c>
-      <c r="H21" s="3">
         <v>0.34842249657064472</v>
       </c>
+      <c r="H21" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="L21" s="3">
+        <v>360</v>
       </c>
       <c r="M21" s="3">
         <v>360</v>
       </c>
-      <c r="N21" s="3">
-        <v>360</v>
-      </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N21" s="26"/>
+      <c r="O21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q21" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R21" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5">
         <v>45516</v>
@@ -2038,43 +1963,40 @@
         <v>45759</v>
       </c>
       <c r="E22" s="3">
-        <v>45759</v>
+        <v>243</v>
       </c>
       <c r="F22" s="3">
         <v>243</v>
       </c>
       <c r="G22" s="3">
-        <v>243</v>
-      </c>
-      <c r="H22" s="3">
         <v>1</v>
       </c>
+      <c r="H22" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="N22" s="26"/>
+      <c r="O22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R22" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="5">
         <v>45545</v>
@@ -2083,43 +2005,40 @@
         <v>45698</v>
       </c>
       <c r="E23" s="3">
-        <v>45759</v>
+        <v>158</v>
       </c>
       <c r="F23" s="3">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="G23" s="3">
-        <v>214</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O23" s="26"/>
-      <c r="P23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="N23" s="26"/>
+      <c r="O23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q23" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R23" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="5">
         <v>45545</v>
@@ -2128,49 +2047,46 @@
         <v>45787</v>
       </c>
       <c r="E24" s="3">
-        <v>45759</v>
+        <v>243</v>
       </c>
       <c r="F24" s="3">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="G24" s="3">
-        <v>206</v>
-      </c>
-      <c r="H24" s="3">
         <v>0.84773662551440332</v>
       </c>
+      <c r="H24" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2571</v>
       </c>
       <c r="M24" s="3">
-        <v>2571</v>
-      </c>
-      <c r="N24" s="3">
         <v>1286</v>
       </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="7">
+      <c r="N24" s="26"/>
+      <c r="O24" s="7">
         <f t="shared" si="0"/>
         <v>1285</v>
       </c>
+      <c r="P24" s="8">
+        <f t="shared" si="1"/>
+        <v>0.50019447685725393</v>
+      </c>
       <c r="Q24" s="8">
-        <f t="shared" si="1"/>
-        <v>0.50019447685725393</v>
-      </c>
-      <c r="R24" s="8">
         <f t="shared" si="2"/>
         <v>0.49980552314274601</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="5">
         <v>45566</v>
@@ -2179,46 +2095,43 @@
         <v>45850</v>
       </c>
       <c r="E25" s="3">
-        <v>45759</v>
+        <v>284</v>
       </c>
       <c r="F25" s="3">
-        <v>284</v>
+        <v>193</v>
       </c>
       <c r="G25" s="3">
-        <v>193</v>
-      </c>
-      <c r="H25" s="3">
         <v>0.67957746478873238</v>
       </c>
+      <c r="H25" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N25" s="26"/>
+      <c r="O25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R25" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="6"/>
-    </row>
-    <row r="26" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="5">
         <v>45574</v>
@@ -2227,49 +2140,46 @@
         <v>45818</v>
       </c>
       <c r="E26" s="3">
-        <v>45759</v>
+        <v>244</v>
       </c>
       <c r="F26" s="3">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="G26" s="3">
-        <v>185</v>
-      </c>
-      <c r="H26" s="3">
         <v>0.75819672131147542</v>
       </c>
+      <c r="H26" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="L26" s="3">
+        <v>18</v>
       </c>
       <c r="M26" s="3">
         <v>18</v>
       </c>
-      <c r="N26" s="3">
-        <v>18</v>
-      </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N26" s="26"/>
+      <c r="O26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q26" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R26" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="5">
         <v>45583</v>
@@ -2278,53 +2188,50 @@
         <v>45657</v>
       </c>
       <c r="E27" s="3">
-        <v>45759</v>
+        <v>74</v>
       </c>
       <c r="F27" s="3">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="G27" s="3">
-        <v>176</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" s="3">
         <v>65</v>
       </c>
-      <c r="N27" s="6">
+      <c r="L27" s="3">
+        <v>65</v>
+      </c>
+      <c r="M27" s="6">
         <f>32500000/1000000</f>
         <v>32.5</v>
       </c>
-      <c r="O27" s="27">
+      <c r="N27" s="27">
         <f>32500000/1000000</f>
         <v>32.5</v>
       </c>
-      <c r="P27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="O27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R27" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>16</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="5">
         <v>45589</v>
@@ -2333,51 +2240,48 @@
         <v>46752</v>
       </c>
       <c r="E28" s="3">
-        <v>45759</v>
+        <v>1163</v>
       </c>
       <c r="F28" s="3">
-        <v>1163</v>
+        <v>170</v>
       </c>
       <c r="G28" s="3">
-        <v>170</v>
-      </c>
-      <c r="H28" s="3">
         <v>0.14617368873602751</v>
       </c>
+      <c r="H28" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1846</v>
       </c>
       <c r="M28" s="3">
-        <v>1846</v>
-      </c>
-      <c r="N28" s="3">
         <v>554</v>
       </c>
-      <c r="O28" s="26">
+      <c r="N28" s="26">
         <v>612.4</v>
       </c>
-      <c r="P28" s="7">
+      <c r="O28" s="7">
         <f t="shared" si="0"/>
         <v>679.6</v>
       </c>
+      <c r="P28" s="8">
+        <f t="shared" si="1"/>
+        <v>0.63185265438786575</v>
+      </c>
       <c r="Q28" s="8">
-        <f t="shared" si="1"/>
-        <v>0.63185265438786575</v>
-      </c>
-      <c r="R28" s="8">
         <f t="shared" si="2"/>
         <v>0.36814734561213436</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>31</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="5">
         <v>45624</v>
@@ -2386,43 +2290,40 @@
         <v>46752</v>
       </c>
       <c r="E29" s="3">
-        <v>45759</v>
+        <v>1128</v>
       </c>
       <c r="F29" s="3">
-        <v>1128</v>
+        <v>135</v>
       </c>
       <c r="G29" s="3">
-        <v>135</v>
-      </c>
-      <c r="H29" s="3">
         <v>0.11968085106382979</v>
       </c>
+      <c r="H29" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="N29" s="26"/>
+      <c r="O29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R29" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="5">
         <v>45636</v>
@@ -2431,43 +2332,40 @@
         <v>45746</v>
       </c>
       <c r="E30" s="3">
-        <v>45759</v>
+        <v>110</v>
       </c>
       <c r="F30" s="3">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G30" s="3">
-        <v>123</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="N30" s="26"/>
+      <c r="O30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q30" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>20</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="5">
         <v>45638</v>
@@ -2476,49 +2374,46 @@
         <v>45838</v>
       </c>
       <c r="E31" s="3">
-        <v>45759</v>
+        <v>200</v>
       </c>
       <c r="F31" s="3">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="G31" s="3">
-        <v>121</v>
-      </c>
-      <c r="H31" s="3">
         <v>0.60499999999999998</v>
       </c>
+      <c r="H31" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1139</v>
       </c>
       <c r="M31" s="3">
         <v>1139</v>
       </c>
-      <c r="N31" s="3">
-        <v>1139</v>
-      </c>
-      <c r="O31" s="26"/>
-      <c r="P31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N31" s="26"/>
+      <c r="O31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q31" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R31" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="5">
         <v>45646</v>
@@ -2527,43 +2422,40 @@
         <v>45342</v>
       </c>
       <c r="E32" s="3">
-        <v>45759</v>
+        <v>-304</v>
       </c>
       <c r="F32" s="3">
-        <v>-304</v>
+        <v>113</v>
       </c>
       <c r="G32" s="3">
-        <v>113</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O32" s="26"/>
-      <c r="P32" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="N32" s="26"/>
+      <c r="O32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q32" s="8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R32" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="5">
         <v>45646</v>
@@ -2572,54 +2464,51 @@
         <v>45767</v>
       </c>
       <c r="E33" s="3">
-        <v>45759</v>
+        <v>121</v>
       </c>
       <c r="F33" s="3">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G33" s="3">
-        <v>113</v>
-      </c>
-      <c r="H33" s="3">
         <v>0.93388429752066116</v>
       </c>
+      <c r="H33" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M33" s="7">
+        <v>73</v>
+      </c>
+      <c r="L33" s="7">
         <f>198264725/1000000</f>
         <v>198.264725</v>
       </c>
-      <c r="N33" s="7">
+      <c r="M33" s="7">
         <f>190643863/1000000</f>
         <v>190.64386300000001</v>
       </c>
-      <c r="O33" s="25">
+      <c r="N33" s="25">
         <v>7.6208619999999998</v>
       </c>
-      <c r="P33" s="7">
+      <c r="O33" s="7">
         <f t="shared" si="0"/>
         <v>-1.1546319456101628E-14</v>
       </c>
+      <c r="P33" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="Q33" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R33" s="8">
         <f t="shared" si="2"/>
         <v>-5.8236882310262847E-17</v>
       </c>
-      <c r="S33" s="6"/>
-    </row>
-    <row r="34" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R33" s="6"/>
+    </row>
+    <row r="34" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="5">
         <v>45663</v>
@@ -2628,50 +2517,47 @@
         <v>46393</v>
       </c>
       <c r="E34" s="3">
-        <v>45759</v>
+        <v>730</v>
       </c>
       <c r="F34" s="3">
-        <v>730</v>
+        <v>96</v>
       </c>
       <c r="G34" s="3">
-        <v>96</v>
-      </c>
-      <c r="H34" s="3">
         <v>0.13150684931506848</v>
       </c>
+      <c r="H34" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M34" s="6">
+        <v>76</v>
+      </c>
+      <c r="L34" s="6">
         <f>408000000/1000000</f>
         <v>408</v>
       </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="27">
+      <c r="M34" s="6"/>
+      <c r="N34" s="27">
         <v>136</v>
       </c>
-      <c r="P34" s="7">
+      <c r="O34" s="7">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
+      <c r="P34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="Q34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="R34" s="8">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="5">
         <v>45663</v>
@@ -2680,49 +2566,46 @@
         <v>46476</v>
       </c>
       <c r="E35" s="3">
-        <v>45759</v>
+        <v>813</v>
       </c>
       <c r="F35" s="3">
-        <v>813</v>
+        <v>96</v>
       </c>
       <c r="G35" s="3">
-        <v>96</v>
-      </c>
-      <c r="H35" s="3">
         <v>0.11808118081180811</v>
       </c>
+      <c r="H35" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M35" s="6">
+        <v>67</v>
+      </c>
+      <c r="L35" s="6">
         <f>2848590558/1000000</f>
         <v>2848.5905579999999</v>
       </c>
-      <c r="O35" s="27">
+      <c r="N35" s="27">
         <v>459</v>
       </c>
-      <c r="P35" s="7">
+      <c r="O35" s="7">
         <f t="shared" si="0"/>
         <v>2389.5905579999999</v>
       </c>
+      <c r="P35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.16113231812516596</v>
+      </c>
       <c r="Q35" s="8">
-        <f t="shared" si="1"/>
-        <v>0.16113231812516596</v>
-      </c>
-      <c r="R35" s="8">
         <f t="shared" si="2"/>
         <v>0.83886768187483407</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>24</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="5">
         <v>45666</v>
@@ -2731,49 +2614,46 @@
         <v>45696</v>
       </c>
       <c r="E36" s="3">
-        <v>45759</v>
+        <v>30</v>
       </c>
       <c r="F36" s="3">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="G36" s="3">
-        <v>93</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M36" s="3">
+        <v>79</v>
+      </c>
+      <c r="L36" s="3">
         <f>10000000/1000000</f>
         <v>10</v>
       </c>
-      <c r="O36" s="26">
+      <c r="N36" s="26">
         <v>10</v>
       </c>
-      <c r="P36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="O36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R36" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="5">
         <v>45694</v>
@@ -2782,49 +2662,46 @@
         <v>45874</v>
       </c>
       <c r="E37" s="3">
-        <v>45759</v>
+        <v>180</v>
       </c>
       <c r="F37" s="3">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="G37" s="3">
-        <v>65</v>
-      </c>
-      <c r="H37" s="3">
         <v>0.3611111111111111</v>
       </c>
+      <c r="H37" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="L37" s="3">
+        <v>165987</v>
       </c>
       <c r="M37" s="3">
-        <v>165987</v>
-      </c>
-      <c r="N37" s="3">
         <v>42090</v>
       </c>
-      <c r="O37" s="26"/>
-      <c r="P37" s="7">
+      <c r="N37" s="26"/>
+      <c r="O37" s="7">
         <f t="shared" si="0"/>
         <v>123897</v>
       </c>
+      <c r="P37" s="8">
+        <f t="shared" si="1"/>
+        <v>0.25357407507816876</v>
+      </c>
       <c r="Q37" s="8">
-        <f t="shared" si="1"/>
-        <v>0.25357407507816876</v>
-      </c>
-      <c r="R37" s="8">
         <f t="shared" si="2"/>
         <v>0.74642592492183124</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="5">
         <v>45762</v>
@@ -2832,44 +2709,44 @@
       <c r="D38" s="5">
         <v>45945</v>
       </c>
+      <c r="E38" s="3">
+        <v>180</v>
+      </c>
       <c r="F38" s="3">
-        <v>180</v>
-      </c>
-      <c r="G38" s="3">
         <v>78</v>
       </c>
+      <c r="H38" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M38" s="6">
+        <v>67</v>
+      </c>
+      <c r="L38" s="6">
         <f>9757908840/1000000</f>
         <v>9757.9088400000001</v>
       </c>
-      <c r="O38" s="25">
+      <c r="N38" s="25">
         <v>7374</v>
       </c>
-      <c r="P38" s="7">
+      <c r="O38" s="7">
         <f t="shared" si="0"/>
         <v>2383.9088400000001</v>
       </c>
+      <c r="P38" s="8">
+        <f t="shared" si="1"/>
+        <v>0.75569470066908306</v>
+      </c>
       <c r="Q38" s="8">
-        <f t="shared" si="1"/>
-        <v>0.75569470066908306</v>
-      </c>
-      <c r="R38" s="8">
         <f t="shared" si="2"/>
         <v>0.24430529933091688</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>31</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="5">
         <v>45768</v>
@@ -2877,44 +2754,44 @@
       <c r="D39" s="5">
         <v>45890</v>
       </c>
+      <c r="E39" s="3">
+        <v>120</v>
+      </c>
       <c r="F39" s="3">
-        <v>120</v>
-      </c>
-      <c r="G39" s="3">
         <v>72</v>
       </c>
+      <c r="H39" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M39" s="6">
+        <v>94</v>
+      </c>
+      <c r="L39" s="6">
         <f>145543755/1000000</f>
         <v>145.543755</v>
       </c>
-      <c r="O39" s="25">
+      <c r="N39" s="25">
         <v>146</v>
       </c>
-      <c r="P39" s="7">
+      <c r="O39" s="7">
         <f t="shared" si="0"/>
         <v>-0.45624499999999557</v>
       </c>
+      <c r="P39" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0031347617766218</v>
+      </c>
       <c r="Q39" s="8">
-        <f t="shared" si="1"/>
-        <v>1.0031347617766218</v>
-      </c>
-      <c r="R39" s="8">
         <f t="shared" si="2"/>
         <v>-3.1347617766217147E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" s="5">
         <v>45778</v>
@@ -2922,39 +2799,39 @@
       <c r="D40" s="5">
         <v>46143</v>
       </c>
+      <c r="E40" s="3">
+        <v>365</v>
+      </c>
       <c r="F40" s="3">
-        <v>365</v>
-      </c>
-      <c r="G40" s="3">
         <v>62</v>
       </c>
+      <c r="H40" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M40" s="6">
+        <v>95</v>
+      </c>
+      <c r="L40" s="6">
         <f>2417361075/1000000</f>
         <v>2417.3610749999998</v>
       </c>
-      <c r="O40" s="25"/>
-      <c r="P40" s="7"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="8">
+        <f t="shared" ref="P40" si="3">(M40+N40)/L40</f>
+        <v>0</v>
+      </c>
       <c r="Q40" s="8">
-        <f t="shared" ref="Q40" si="3">(N40+O40)/M40</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="8">
-        <f t="shared" ref="R40" si="4">P40/M40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q40" si="4">O40/L40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>33</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="5">
         <v>45454</v>
@@ -2962,48 +2839,48 @@
       <c r="D41" s="5">
         <v>46245</v>
       </c>
+      <c r="E41" s="3">
+        <v>791</v>
+      </c>
       <c r="F41" s="3">
-        <v>791</v>
-      </c>
-      <c r="G41" s="3">
         <v>386</v>
       </c>
+      <c r="H41" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M41" s="3">
+        <v>45</v>
+      </c>
+      <c r="L41" s="3">
         <v>7685</v>
       </c>
-      <c r="N41" s="7">
+      <c r="M41" s="7">
         <f>2686200000/1000000</f>
         <v>2686.2</v>
       </c>
-      <c r="O41" s="25">
+      <c r="N41" s="25">
         <f>4442331000/1000000</f>
         <v>4442.3310000000001</v>
       </c>
-      <c r="P41" s="7">
+      <c r="O41" s="7">
         <f t="shared" si="0"/>
         <v>556.46900000000005</v>
       </c>
+      <c r="P41" s="8">
+        <f t="shared" si="1"/>
+        <v>0.92759024072869223</v>
+      </c>
       <c r="Q41" s="8">
-        <f t="shared" si="1"/>
-        <v>0.92759024072869223</v>
-      </c>
-      <c r="R41" s="8">
         <f t="shared" si="2"/>
         <v>7.2409759271307744E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
         <v>34</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="30">
         <v>45461</v>
@@ -3011,49 +2888,49 @@
       <c r="D42" s="30">
         <v>46191</v>
       </c>
+      <c r="E42" s="29">
+        <v>730</v>
+      </c>
       <c r="F42" s="29">
-        <v>730</v>
-      </c>
-      <c r="G42" s="29">
         <v>379</v>
       </c>
+      <c r="H42" s="29" t="s">
+        <v>96</v>
+      </c>
       <c r="I42" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="J42" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="M42" s="31">
+        <v>47</v>
+      </c>
+      <c r="L42" s="31">
         <f>8306130000/1000000</f>
         <v>8306.1299999999992</v>
       </c>
-      <c r="N42" s="32">
+      <c r="M42" s="32">
         <f>6152132315/1000000</f>
         <v>6152.1323149999998</v>
       </c>
-      <c r="O42" s="32">
+      <c r="N42" s="32">
         <f>421738183/1000000</f>
         <v>421.73818299999999</v>
       </c>
-      <c r="P42" s="32">
-        <f t="shared" ref="P42" si="5">M42-N42-O42</f>
+      <c r="O42" s="32">
+        <f t="shared" ref="O42" si="5">L42-M42-N42</f>
         <v>1732.2595019999994</v>
       </c>
+      <c r="P42" s="33">
+        <f t="shared" ref="P42" si="6">(M42+N42)/L42</f>
+        <v>0.79144806281625746</v>
+      </c>
       <c r="Q42" s="33">
-        <f t="shared" ref="Q42" si="6">(N42+O42)/M42</f>
-        <v>0.79144806281625746</v>
-      </c>
-      <c r="R42" s="33">
-        <f t="shared" ref="R42" si="7">P42/M42</f>
+        <f t="shared" ref="Q42" si="7">O42/L42</f>
         <v>0.20855193718374257</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>35</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="5">
         <v>45574</v>
@@ -3061,44 +2938,44 @@
       <c r="D43" s="5">
         <v>45848</v>
       </c>
+      <c r="E43" s="3">
+        <v>275</v>
+      </c>
       <c r="F43" s="3">
-        <v>275</v>
-      </c>
-      <c r="G43" s="3">
         <v>266</v>
       </c>
+      <c r="H43" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="I43" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="L43" s="3">
+        <v>20</v>
       </c>
       <c r="M43" s="3">
         <v>20</v>
       </c>
-      <c r="N43" s="3">
-        <v>20</v>
-      </c>
-      <c r="O43" s="26"/>
-      <c r="P43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="N43" s="26"/>
+      <c r="O43" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q43" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R43" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>36</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="5">
         <v>45805</v>
@@ -3106,45 +2983,45 @@
       <c r="D44" s="5">
         <v>46109</v>
       </c>
+      <c r="E44" s="3">
+        <v>304</v>
+      </c>
       <c r="F44" s="3">
-        <v>304</v>
-      </c>
-      <c r="G44" s="3">
         <v>35</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M44" s="6">
+      <c r="L44" s="6">
         <f>1607280000/1000000</f>
         <v>1607.28</v>
       </c>
-      <c r="O44" s="25">
+      <c r="N44" s="25">
         <f>964368000/1000000</f>
         <v>964.36800000000005</v>
       </c>
-      <c r="P44" s="7">
-        <f t="shared" ref="P44" si="8">M44-N44-O44</f>
+      <c r="O44" s="7">
+        <f t="shared" ref="O44" si="8">L44-M44-N44</f>
         <v>642.91199999999992</v>
       </c>
+      <c r="P44" s="8">
+        <f t="shared" ref="P44" si="9">(M44+N44)/L44</f>
+        <v>0.60000000000000009</v>
+      </c>
       <c r="Q44" s="8">
-        <f t="shared" ref="Q44" si="9">(N44+O44)/M44</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="R44" s="8">
-        <f t="shared" ref="R44" si="10">P44/M44</f>
+        <f t="shared" ref="Q44" si="10">O44/L44</f>
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>37</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="5">
         <v>45818</v>
@@ -3152,41 +3029,41 @@
       <c r="D45" s="5">
         <v>45667</v>
       </c>
+      <c r="E45" s="3">
+        <v>214</v>
+      </c>
       <c r="F45" s="3">
-        <v>214</v>
-      </c>
-      <c r="G45" s="3">
         <v>22</v>
       </c>
+      <c r="H45" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I45" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M45" s="6">
-        <v>0</v>
-      </c>
-      <c r="O45" s="25"/>
-      <c r="P45" s="7">
-        <f t="shared" ref="P45" si="11">M45-N45-O45</f>
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="25"/>
+      <c r="O45" s="7">
+        <f t="shared" ref="O45" si="11">L45-M45-N45</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="8" t="e">
+        <f t="shared" ref="P45" si="12">(M45+N45)/L45</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q45" s="8" t="e">
-        <f t="shared" ref="Q45" si="12">(N45+O45)/M45</f>
+        <f t="shared" ref="Q45" si="13">O45/L45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R45" s="8" t="e">
-        <f t="shared" ref="R45" si="13">P45/M45</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>38</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="5">
         <v>45545</v>
@@ -3194,49 +3071,49 @@
       <c r="D46" s="5">
         <v>45971</v>
       </c>
+      <c r="E46" s="3">
+        <v>426</v>
+      </c>
       <c r="F46" s="3">
-        <v>426</v>
-      </c>
-      <c r="G46" s="3">
         <v>325</v>
       </c>
+      <c r="H46" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="I46" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M46" s="6">
+        <v>100</v>
+      </c>
+      <c r="L46" s="6">
         <f>3120776655/1000000</f>
         <v>3120.7766550000001</v>
       </c>
-      <c r="N46" s="7">
+      <c r="M46" s="7">
         <f>1285728153/1000000</f>
         <v>1285.728153</v>
       </c>
-      <c r="O46" s="25">
+      <c r="N46" s="25">
         <f>1522970837/1000000</f>
         <v>1522.9708370000001</v>
       </c>
-      <c r="P46" s="7">
-        <f t="shared" ref="P46" si="14">M46-N46-O46</f>
+      <c r="O46" s="7">
+        <f t="shared" ref="O46" si="14">L46-M46-N46</f>
         <v>312.07766500000002</v>
       </c>
+      <c r="P46" s="8">
+        <f t="shared" ref="P46" si="15">(M46+N46)/L46</f>
+        <v>0.90000000016021642</v>
+      </c>
       <c r="Q46" s="8">
-        <f t="shared" ref="Q46" si="15">(N46+O46)/M46</f>
-        <v>0.90000000016021642</v>
-      </c>
-      <c r="R46" s="8">
-        <f t="shared" ref="R46" si="16">P46/M46</f>
+        <f t="shared" ref="Q46" si="16">O46/L46</f>
         <v>9.9999999839783471E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>39</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="5">
         <v>45831</v>
@@ -3244,45 +3121,45 @@
       <c r="D47" s="5">
         <v>45953</v>
       </c>
+      <c r="E47" s="3">
+        <v>122</v>
+      </c>
       <c r="F47" s="3">
-        <v>122</v>
-      </c>
-      <c r="G47" s="3">
         <v>9</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M47" s="6">
+      <c r="L47" s="6">
         <f>255300000/1000000</f>
         <v>255.3</v>
       </c>
-      <c r="O47" s="27">
+      <c r="N47" s="27">
         <f>178.7</f>
         <v>178.7</v>
       </c>
-      <c r="P47" s="7">
-        <f t="shared" ref="P47" si="17">M47-N47-O47</f>
+      <c r="O47" s="7">
+        <f t="shared" ref="O47" si="17">L47-M47-N47</f>
         <v>76.600000000000023</v>
       </c>
+      <c r="P47" s="8">
+        <f t="shared" ref="P47" si="18">(M47+N47)/L47</f>
+        <v>0.69996083039561297</v>
+      </c>
       <c r="Q47" s="8">
-        <f t="shared" ref="Q47" si="18">(N47+O47)/M47</f>
-        <v>0.69996083039561297</v>
-      </c>
-      <c r="R47" s="8">
-        <f t="shared" ref="R47" si="19">P47/M47</f>
+        <f t="shared" ref="Q47" si="19">O47/L47</f>
         <v>0.30003916960438709</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>40</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" s="5">
         <v>45831</v>
@@ -3290,46 +3167,46 @@
       <c r="D48" s="5">
         <v>46500</v>
       </c>
+      <c r="E48" s="3">
+        <v>669</v>
+      </c>
       <c r="F48" s="3">
-        <v>669</v>
-      </c>
-      <c r="G48" s="3">
         <v>9</v>
       </c>
+      <c r="H48" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M48" s="6">
+        <v>73</v>
+      </c>
+      <c r="L48" s="6">
         <f>1565647431/1000000</f>
         <v>1565.6474310000001</v>
       </c>
-      <c r="O48" s="25">
+      <c r="N48" s="25">
         <f>1226004590/1000000</f>
         <v>1226.00459</v>
       </c>
-      <c r="P48" s="7">
-        <f t="shared" ref="P48" si="20">M48-N48-O48</f>
+      <c r="O48" s="7">
+        <f t="shared" ref="O48" si="20">L48-M48-N48</f>
         <v>339.64284100000009</v>
       </c>
+      <c r="P48" s="8">
+        <f t="shared" ref="P48" si="21">(M48+N48)/L48</f>
+        <v>0.78306556490622825</v>
+      </c>
       <c r="Q48" s="8">
-        <f t="shared" ref="Q48" si="21">(N48+O48)/M48</f>
-        <v>0.78306556490622825</v>
-      </c>
-      <c r="R48" s="8">
-        <f t="shared" ref="R48" si="22">P48/M48</f>
+        <f t="shared" ref="Q48" si="22">O48/L48</f>
         <v>0.2169344350937718</v>
       </c>
-      <c r="S48" s="8"/>
-    </row>
-    <row r="49" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R48" s="8"/>
+    </row>
+    <row r="49" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>41</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49" s="5">
         <v>45839</v>
@@ -3337,43 +3214,43 @@
       <c r="D49" s="5">
         <v>46113</v>
       </c>
-      <c r="F49" s="3">
+      <c r="E49" s="3">
         <v>274</v>
       </c>
+      <c r="H49" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="I49" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M49" s="6">
+        <v>67</v>
+      </c>
+      <c r="L49" s="6">
         <f>700121666/1000000</f>
         <v>700.121666</v>
       </c>
-      <c r="O49" s="27">
+      <c r="N49" s="27">
         <f>420072989/1000000</f>
         <v>420.07298900000001</v>
       </c>
-      <c r="P49" s="7">
-        <f t="shared" ref="P49:P50" si="23">M49-N49-O49</f>
+      <c r="O49" s="7">
+        <f t="shared" ref="O49:O50" si="23">L49-M49-N49</f>
         <v>280.048677</v>
       </c>
+      <c r="P49" s="8">
+        <f t="shared" ref="P49" si="24">(M49+N49)/L49</f>
+        <v>0.59999998485977435</v>
+      </c>
       <c r="Q49" s="8">
-        <f t="shared" ref="Q49" si="24">(N49+O49)/M49</f>
-        <v>0.59999998485977435</v>
-      </c>
-      <c r="R49" s="8">
-        <f t="shared" ref="R49" si="25">P49/M49</f>
+        <f t="shared" ref="Q49" si="25">O49/L49</f>
         <v>0.40000001514022565</v>
       </c>
-      <c r="S49" s="8"/>
-    </row>
-    <row r="50" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R49" s="8"/>
+    </row>
+    <row r="50" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>42</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="11">
         <v>45778</v>
@@ -3381,44 +3258,44 @@
       <c r="D50" s="11">
         <v>46143</v>
       </c>
+      <c r="E50" s="9">
+        <v>365</v>
+      </c>
       <c r="F50" s="9">
-        <v>365</v>
-      </c>
-      <c r="G50" s="9">
         <v>111</v>
       </c>
+      <c r="H50" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="I50" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M50" s="9">
+        <v>95</v>
+      </c>
+      <c r="L50" s="9">
         <v>2417</v>
       </c>
-      <c r="O50" s="25">
+      <c r="N50" s="25">
         <v>1875</v>
       </c>
-      <c r="P50" s="12">
+      <c r="O50" s="12">
         <f t="shared" si="23"/>
         <v>542</v>
       </c>
+      <c r="P50" s="13">
+        <f t="shared" si="1"/>
+        <v>0.77575506826644602</v>
+      </c>
       <c r="Q50" s="13">
-        <f t="shared" si="1"/>
-        <v>0.77575506826644602</v>
-      </c>
-      <c r="R50" s="13">
         <f t="shared" si="2"/>
         <v>0.224244931733554</v>
       </c>
-      <c r="S50" s="13"/>
-    </row>
-    <row r="51" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R50" s="13"/>
+    </row>
+    <row r="51" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>43</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="11">
         <v>45852</v>
@@ -3426,44 +3303,44 @@
       <c r="D51" s="11">
         <v>46217</v>
       </c>
+      <c r="E51" s="9">
+        <v>365</v>
+      </c>
       <c r="F51" s="9">
-        <v>365</v>
-      </c>
-      <c r="G51" s="9">
         <v>38</v>
       </c>
+      <c r="H51" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="I51" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M51" s="9">
+        <v>98</v>
+      </c>
+      <c r="L51" s="9">
         <v>920</v>
       </c>
-      <c r="O51" s="26">
+      <c r="N51" s="26">
         <v>552</v>
       </c>
-      <c r="P51" s="12">
+      <c r="O51" s="12">
         <f t="shared" si="0"/>
         <v>368</v>
       </c>
+      <c r="P51" s="13">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
       <c r="Q51" s="13">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="R51" s="13">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="S51" s="13"/>
-    </row>
-    <row r="52" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R51" s="13"/>
+    </row>
+    <row r="52" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>44</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="11">
         <v>45818</v>
@@ -3471,45 +3348,45 @@
       <c r="D52" s="11">
         <v>46063</v>
       </c>
+      <c r="E52" s="9">
+        <v>245</v>
+      </c>
       <c r="F52" s="9">
-        <v>245</v>
-      </c>
-      <c r="G52" s="9">
         <v>71</v>
       </c>
+      <c r="H52" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="I52" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="M52" s="9">
+        <v>73</v>
+      </c>
+      <c r="L52" s="9">
         <v>197</v>
       </c>
-      <c r="O52" s="25">
+      <c r="N52" s="25">
         <f>187207190/1000000</f>
         <v>187.20719</v>
       </c>
-      <c r="P52" s="12">
+      <c r="O52" s="12">
         <f t="shared" si="0"/>
         <v>9.7928100000000029</v>
       </c>
+      <c r="P52" s="13">
+        <f t="shared" si="1"/>
+        <v>0.95029030456852792</v>
+      </c>
       <c r="Q52" s="13">
-        <f t="shared" si="1"/>
-        <v>0.95029030456852792</v>
-      </c>
-      <c r="R52" s="13">
         <f t="shared" si="2"/>
         <v>4.9709695431472099E-2</v>
       </c>
-      <c r="S52" s="13"/>
-    </row>
-    <row r="53" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R52" s="13"/>
+    </row>
+    <row r="53" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>45</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="11">
         <v>45250</v>
@@ -3517,48 +3394,48 @@
       <c r="D53" s="11">
         <v>46042</v>
       </c>
+      <c r="E53" s="9">
+        <v>645</v>
+      </c>
       <c r="F53" s="9">
-        <v>645</v>
-      </c>
-      <c r="G53" s="9">
         <v>639</v>
       </c>
+      <c r="H53" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="I53" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M53" s="9">
+        <v>36</v>
+      </c>
+      <c r="L53" s="9">
         <v>2805</v>
       </c>
-      <c r="N53" s="12">
+      <c r="M53" s="12">
         <f>1282848184/1000000</f>
         <v>1282.8481839999999</v>
       </c>
-      <c r="O53" s="25">
+      <c r="N53" s="25">
         <v>1413</v>
       </c>
-      <c r="P53" s="12">
+      <c r="O53" s="12">
         <f t="shared" si="0"/>
         <v>109.15181600000005</v>
       </c>
+      <c r="P53" s="13">
+        <f t="shared" si="1"/>
+        <v>0.96108669661319068</v>
+      </c>
       <c r="Q53" s="13">
-        <f t="shared" si="1"/>
-        <v>0.96108669661319068</v>
-      </c>
-      <c r="R53" s="13">
         <f t="shared" si="2"/>
         <v>3.8913303386809289E-2</v>
       </c>
-      <c r="S53" s="13"/>
-    </row>
-    <row r="54" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R53" s="13"/>
+    </row>
+    <row r="54" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>46</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C54" s="11">
         <v>45845</v>
@@ -3566,45 +3443,45 @@
       <c r="D54" s="11">
         <v>45846</v>
       </c>
+      <c r="E54" s="9">
+        <v>120</v>
+      </c>
       <c r="F54" s="9">
-        <v>120</v>
-      </c>
-      <c r="G54" s="9">
         <v>43</v>
       </c>
+      <c r="H54" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="I54" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M54" s="14">
+        <v>106</v>
+      </c>
+      <c r="L54" s="14">
         <f>312307300/1000000</f>
         <v>312.3073</v>
       </c>
-      <c r="O54" s="27">
+      <c r="N54" s="27">
         <v>296.60000000000002</v>
       </c>
-      <c r="P54" s="12">
+      <c r="O54" s="12">
         <f t="shared" si="0"/>
         <v>15.707299999999975</v>
       </c>
+      <c r="P54" s="13">
+        <f t="shared" si="1"/>
+        <v>0.94970562647751122</v>
+      </c>
       <c r="Q54" s="13">
-        <f t="shared" si="1"/>
-        <v>0.94970562647751122</v>
-      </c>
-      <c r="R54" s="13">
         <f t="shared" si="2"/>
         <v>5.0294373522488826E-2</v>
       </c>
-      <c r="S54" s="13"/>
-    </row>
-    <row r="55" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R54" s="13"/>
+    </row>
+    <row r="55" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
         <v>47</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" s="17">
         <v>45867</v>
@@ -3612,34 +3489,34 @@
       <c r="D55" s="17">
         <v>45959</v>
       </c>
+      <c r="E55" s="15">
+        <v>92</v>
+      </c>
       <c r="F55" s="15">
-        <v>92</v>
-      </c>
-      <c r="G55" s="15">
         <v>38</v>
       </c>
+      <c r="H55" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="I55" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="M55" s="18">
+        <v>115</v>
+      </c>
+      <c r="L55" s="18">
         <v>2425</v>
       </c>
-      <c r="O55" s="26">
+      <c r="N55" s="26">
         <v>727.6</v>
       </c>
+      <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-    </row>
-    <row r="56" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>48</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C56" s="17">
         <v>45820</v>
@@ -3647,34 +3524,34 @@
       <c r="D56" s="17">
         <v>46430</v>
       </c>
+      <c r="E56" s="15">
+        <v>976</v>
+      </c>
       <c r="F56" s="15">
-        <v>976</v>
-      </c>
-      <c r="G56" s="15">
         <v>450</v>
       </c>
+      <c r="H56" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="I56" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M56" s="18">
+        <v>47</v>
+      </c>
+      <c r="L56" s="18">
         <v>9902</v>
       </c>
-      <c r="N56" s="15">
+      <c r="M56" s="15">
         <v>6327</v>
       </c>
-      <c r="O56" s="26">
+      <c r="N56" s="26">
         <v>724</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15">
         <v>49</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C57" s="17">
         <v>45910</v>
@@ -3682,29 +3559,29 @@
       <c r="D57" s="17">
         <v>46032</v>
       </c>
+      <c r="E57" s="15">
+        <v>488</v>
+      </c>
       <c r="F57" s="15">
-        <v>488</v>
-      </c>
-      <c r="G57" s="15">
         <v>359</v>
       </c>
+      <c r="H57" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="I57" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="M57" s="21">
+        <v>100</v>
+      </c>
+      <c r="L57" s="21">
         <v>3121</v>
       </c>
-      <c r="O57" s="26"/>
-    </row>
-    <row r="58" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N57" s="26"/>
+    </row>
+    <row r="58" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15">
         <v>50</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="17">
         <v>45883</v>
@@ -3712,31 +3589,31 @@
       <c r="D58" s="17">
         <v>46415</v>
       </c>
+      <c r="E58" s="15">
+        <v>533</v>
+      </c>
       <c r="F58" s="15">
-        <v>533</v>
-      </c>
-      <c r="G58" s="15">
         <v>22</v>
       </c>
+      <c r="H58" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="I58" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="J58" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M58" s="21">
+        <v>116</v>
+      </c>
+      <c r="L58" s="21">
         <v>26151</v>
       </c>
-      <c r="O58" s="26">
+      <c r="N58" s="26">
         <v>10.268000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15">
         <v>51</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" s="17">
         <v>45895</v>
@@ -3744,29 +3621,29 @@
       <c r="D59" s="17">
         <v>46446</v>
       </c>
+      <c r="E59" s="15">
+        <v>549</v>
+      </c>
       <c r="F59" s="15">
-        <v>549</v>
-      </c>
-      <c r="G59" s="15">
         <v>8</v>
       </c>
+      <c r="H59" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="I59" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="J59" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="M59" s="21">
+        <v>73</v>
+      </c>
+      <c r="L59" s="21">
         <v>1547</v>
       </c>
-      <c r="O59" s="26"/>
-    </row>
-    <row r="60" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N59" s="26"/>
+    </row>
+    <row r="60" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15">
         <v>52</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" s="17">
         <v>45901</v>
@@ -3774,31 +3651,31 @@
       <c r="D60" s="17">
         <v>46173</v>
       </c>
+      <c r="E60" s="15">
+        <v>273</v>
+      </c>
       <c r="F60" s="15">
-        <v>273</v>
-      </c>
-      <c r="G60" s="15">
         <v>4</v>
       </c>
+      <c r="H60" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="I60" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="M60" s="21">
+        <v>106</v>
+      </c>
+      <c r="L60" s="21">
         <v>292</v>
       </c>
-      <c r="O60" s="26">
+      <c r="N60" s="26">
         <v>194.5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15">
         <v>53</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" s="17">
         <v>45901</v>
@@ -3806,31 +3683,31 @@
       <c r="D61" s="17">
         <v>46082</v>
       </c>
+      <c r="E61" s="15">
+        <v>181</v>
+      </c>
       <c r="F61" s="15">
-        <v>181</v>
-      </c>
-      <c r="G61" s="15">
         <v>4</v>
       </c>
+      <c r="H61" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="I61" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="J61" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="M61" s="21">
+        <v>106</v>
+      </c>
+      <c r="L61" s="21">
         <v>2527</v>
       </c>
-      <c r="O61" s="26">
+      <c r="N61" s="26">
         <v>1638</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15">
         <v>54</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" s="17">
         <v>45478</v>
@@ -3838,29 +3715,29 @@
       <c r="D62" s="17">
         <v>46447</v>
       </c>
+      <c r="E62" s="15">
+        <v>969</v>
+      </c>
       <c r="F62" s="15">
-        <v>969</v>
-      </c>
-      <c r="G62" s="15">
         <v>427</v>
       </c>
+      <c r="H62" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="I62" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J62" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="M62" s="21">
+        <v>117</v>
+      </c>
+      <c r="L62" s="21">
         <v>165987</v>
       </c>
-      <c r="O62" s="26"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N62" s="26"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>56</v>
       </c>

--- a/data/data_kontrak_new.xlsx
+++ b/data/data_kontrak_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8D06DB6-5AA2-C747-93A4-58ECEC42CF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E74BB0-5EC2-2C4E-8D12-81C5A19C5C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17980" yWindow="13400" windowWidth="21640" windowHeight="9440" xr2:uid="{D53284D3-7228-FB40-BBF3-623B1B63560A}"/>
+    <workbookView xWindow="18380" yWindow="13900" windowWidth="21240" windowHeight="8940" xr2:uid="{08613322-1D05-A340-8F29-CFA90E8C7642}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Finance-INA</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{3191C52A-FCE8-0545-B748-DAD9E3CE26AC}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{6AEAD6E5-3CA0-654F-A3FE-DF73E4E890E4}">
       <text/>
     </comment>
   </commentList>
@@ -890,10 +890,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFA6DD7-EB73-7B4F-8E7E-C1D0669F8CC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBD233A-9637-744B-A4B5-AA55EAFFDFED}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
